--- a/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack_Column.xlsx
+++ b/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack_Column.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Steer\Rack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Steer\Rack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FFAB75-8FC5-439E-8B02-4DBDEB299E39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A17486E-3AE8-467C-B0A9-A5087C1A8F26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="869" activeTab="4" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="21600" windowHeight="11325" tabRatio="869" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="RWheel_HambaLG_f" sheetId="8" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="RStaticShafts_HambaLG" sheetId="12" r:id="rId4"/>
     <sheet name="RWheel_Hamba_f" sheetId="7" r:id="rId5"/>
     <sheet name="RWheel_Bus_Makhulu_f" sheetId="6" r:id="rId6"/>
+    <sheet name="WDrivenRack_1UJ_Achilles" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="57">
   <si>
     <t>Units</t>
   </si>
@@ -199,6 +203,15 @@
   <si>
     <t>Orig</t>
   </si>
+  <si>
+    <t>WheelDrivenRack1UJoint</t>
+  </si>
+  <si>
+    <t>WheelDrivenRack1UJoint_Achilles</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
 </sst>
 </file>
 
@@ -227,7 +240,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -277,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -327,11 +346,48 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="41">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -899,24 +955,24 @@
   </sheetPr>
   <dimension ref="A1:AB29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="C38" sqref="C38"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="28" width="7.21875" customWidth="1"/>
+    <col min="9" max="28" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -936,7 +992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -950,7 +1006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -964,7 +1020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -997,7 +1053,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1097,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -1085,7 +1141,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -1123,7 +1179,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
@@ -1135,7 +1191,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -1158,7 +1214,7 @@
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1199,7 +1255,7 @@
       <c r="AA9"/>
       <c r="AB9"/>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
@@ -1234,7 +1290,7 @@
       <c r="AA10"/>
       <c r="AB10"/>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -1272,7 +1328,7 @@
       <c r="AA11"/>
       <c r="AB11"/>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1373,7 +1429,7 @@
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>24</v>
@@ -1472,13 +1528,13 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1546,7 +1602,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
@@ -1555,7 +1611,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="H17" s="12">
         <v>-180</v>
@@ -1621,7 +1677,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -1630,105 +1686,105 @@
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="15"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="H29" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A24:B25 A4:B10 A12:B13">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B27">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E10 E12:E13">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1748,19 +1804,19 @@
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="28" width="7.21875" customWidth="1"/>
+    <col min="9" max="28" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1780,7 +1836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1794,7 +1850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1808,7 +1864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1843,7 +1899,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +1958,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -1946,7 +2002,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -1984,7 +2040,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
@@ -1997,7 +2053,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -2020,7 +2076,7 @@
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -2062,7 +2118,7 @@
       <c r="AA9"/>
       <c r="AB9"/>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
@@ -2098,7 +2154,7 @@
       <c r="AA10"/>
       <c r="AB10"/>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -2136,7 +2192,7 @@
       <c r="AA11"/>
       <c r="AB11"/>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -2174,7 +2230,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
     </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>30</v>
@@ -2210,7 +2266,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -2248,7 +2304,7 @@
       <c r="AA14"/>
       <c r="AB14"/>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -2284,7 +2340,7 @@
       <c r="AA15"/>
       <c r="AB15"/>
     </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>30</v>
@@ -2318,7 +2374,7 @@
       <c r="AA16"/>
       <c r="AB16"/>
     </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -2369,7 +2425,7 @@
       <c r="AA17"/>
       <c r="AB17"/>
     </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
@@ -2403,7 +2459,7 @@
       <c r="AA18"/>
       <c r="AB18"/>
     </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>11</v>
@@ -2437,7 +2493,7 @@
       <c r="AA19"/>
       <c r="AB19"/>
     </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -2538,7 +2594,7 @@
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
@@ -2637,13 +2693,13 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -2711,7 +2767,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -2720,7 +2776,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="F25" s="7"/>
@@ -2789,7 +2845,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="15"/>
       <c r="H26" s="6">
@@ -2797,26 +2853,26 @@
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
     </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="15"/>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E31" s="18" t="s">
         <v>37</v>
       </c>
@@ -2826,7 +2882,7 @@
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E32" s="18" t="s">
         <v>38</v>
       </c>
@@ -2838,27 +2894,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A25:B28 A4:B10 E5:E10 E12:E21 A12:B21">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:B11">
-    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2878,19 +2934,19 @@
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="28" width="7.21875" customWidth="1"/>
+    <col min="9" max="28" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2910,7 +2966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2924,7 +2980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2938,7 +2994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -2971,7 +3027,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3015,7 +3071,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -3059,7 +3115,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -3097,7 +3153,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
@@ -3110,7 +3166,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -3133,7 +3189,7 @@
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -3175,7 +3231,7 @@
       <c r="AA9"/>
       <c r="AB9"/>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
@@ -3211,7 +3267,7 @@
       <c r="AA10"/>
       <c r="AB10"/>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -3249,7 +3305,7 @@
       <c r="AA11"/>
       <c r="AB11"/>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -3287,7 +3343,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
     </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>30</v>
@@ -3323,7 +3379,7 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
@@ -3361,7 +3417,7 @@
       <c r="AA14"/>
       <c r="AB14"/>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -3397,7 +3453,7 @@
       <c r="AA15"/>
       <c r="AB15"/>
     </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
         <v>30</v>
@@ -3431,7 +3487,7 @@
       <c r="AA16"/>
       <c r="AB16"/>
     </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
@@ -3473,7 +3529,7 @@
       <c r="AA17"/>
       <c r="AB17"/>
     </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>29</v>
@@ -3507,7 +3563,7 @@
       <c r="AA18"/>
       <c r="AB18"/>
     </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>11</v>
@@ -3541,7 +3597,7 @@
       <c r="AA19"/>
       <c r="AB19"/>
     </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -3642,7 +3698,7 @@
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="5" t="s">
         <v>24</v>
@@ -3741,13 +3797,13 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -3815,7 +3871,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -3824,7 +3880,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="H25" s="12">
         <v>-180</v>
@@ -3890,7 +3946,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -3899,68 +3955,1111 @@
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="15"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="15"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="15"/>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="15"/>
+      <c r="B37" s="15"/>
+      <c r="H37" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A32:B35 A4:B10 E5:E10 E12:E21 A12:B21">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B11">
+    <cfRule type="cellIs" dxfId="25" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AC622F-3DB9-4F16-B5C0-4EC8FC6B4193}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:AB37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="S33" sqref="S33"/>
+      <selection pane="topRight" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="28" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.37421428571428578</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.24779999999999999</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.52560000000000007</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.37421428571428578</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>19.792000000000002</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+    </row>
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12">
+        <v>50</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7">
+        <v>-1.3243331220516996</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0.45175517503754498</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.88921153885340298</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+    </row>
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+    </row>
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="H15" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="H16" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6">
+        <v>0.22780000000000003</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.33957326956290784</v>
+      </c>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="H18" s="6">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="H19" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12">
+        <f>H24*$H$25</f>
+        <v>-3.1415700000000002</v>
+      </c>
+      <c r="I20" s="12">
+        <f t="shared" ref="I20:AB20" si="0">I24*$H$25</f>
+        <v>-2.8274130000000004</v>
+      </c>
+      <c r="J20" s="12">
+        <f t="shared" si="0"/>
+        <v>-2.5132560000000002</v>
+      </c>
+      <c r="K20" s="12">
+        <f t="shared" si="0"/>
+        <v>-2.1990990000000004</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.8849420000000003</v>
+      </c>
+      <c r="M20" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.5707850000000001</v>
+      </c>
+      <c r="N20" s="12">
+        <f t="shared" si="0"/>
+        <v>-1.2566280000000001</v>
+      </c>
+      <c r="O20" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.94247100000000017</v>
+      </c>
+      <c r="P20" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.62831400000000004</v>
+      </c>
+      <c r="Q20" s="12">
+        <f t="shared" si="0"/>
+        <v>-0.31415700000000002</v>
+      </c>
+      <c r="R20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
+        <f t="shared" si="0"/>
+        <v>0.31415700000000002</v>
+      </c>
+      <c r="T20" s="12">
+        <f t="shared" si="0"/>
+        <v>0.62831400000000004</v>
+      </c>
+      <c r="U20" s="12">
+        <f t="shared" si="0"/>
+        <v>0.94247100000000017</v>
+      </c>
+      <c r="V20" s="12">
+        <f t="shared" si="0"/>
+        <v>1.2566280000000001</v>
+      </c>
+      <c r="W20" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5707850000000001</v>
+      </c>
+      <c r="X20" s="12">
+        <f t="shared" si="0"/>
+        <v>1.8849420000000003</v>
+      </c>
+      <c r="Y20" s="12">
+        <f t="shared" si="0"/>
+        <v>2.1990990000000004</v>
+      </c>
+      <c r="Z20" s="12">
+        <f t="shared" si="0"/>
+        <v>2.5132560000000002</v>
+      </c>
+      <c r="AA20" s="12">
+        <f t="shared" si="0"/>
+        <v>2.8274130000000004</v>
+      </c>
+      <c r="AB20" s="12">
+        <f t="shared" si="0"/>
+        <v>3.1415700000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="I21">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="J21">
+        <v>-0.24360000000000001</v>
+      </c>
+      <c r="K21">
+        <v>-0.2112</v>
+      </c>
+      <c r="L21">
+        <v>-0.17780000000000001</v>
+      </c>
+      <c r="M21">
+        <v>-0.1462</v>
+      </c>
+      <c r="N21">
+        <v>-0.1178</v>
+      </c>
+      <c r="O21">
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="P21">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+      <c r="Q21">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T21">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="U21">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="V21">
+        <v>0.1178</v>
+      </c>
+      <c r="W21">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="X21">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="Y21">
+        <v>0.2112</v>
+      </c>
+      <c r="Z21">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="AA21">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AB21">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="12">
+        <v>-180</v>
+      </c>
+      <c r="I24">
+        <v>-162</v>
+      </c>
+      <c r="J24">
+        <v>-144</v>
+      </c>
+      <c r="K24">
+        <v>-126</v>
+      </c>
+      <c r="L24">
+        <v>-108</v>
+      </c>
+      <c r="M24">
+        <v>-90</v>
+      </c>
+      <c r="N24">
+        <v>-72</v>
+      </c>
+      <c r="O24">
+        <v>-54</v>
+      </c>
+      <c r="P24">
+        <v>-36</v>
+      </c>
+      <c r="Q24">
+        <v>-18</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24">
+        <v>36</v>
+      </c>
+      <c r="U24">
+        <v>54</v>
+      </c>
+      <c r="V24">
+        <v>72</v>
+      </c>
+      <c r="W24">
+        <v>90</v>
+      </c>
+      <c r="X24">
+        <v>108</v>
+      </c>
+      <c r="Y24">
+        <v>126</v>
+      </c>
+      <c r="Z24">
+        <v>144</v>
+      </c>
+      <c r="AA24">
+        <v>162</v>
+      </c>
+      <c r="AB24">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="H25" s="6">
+        <f>3.14157/180</f>
+        <v>1.7453166666666669E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="15"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15"/>
+      <c r="B36" s="15"/>
+      <c r="H36" s="16"/>
+    </row>
+    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="H37" s="16"/>
@@ -3995,31 +5094,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AC622F-3DB9-4F16-B5C0-4EC8FC6B4193}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11C41EB-00BD-4D32-9768-361F74323707}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
-  <dimension ref="A1:AB37"/>
+  <dimension ref="A1:AB29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="28" width="7.21875" customWidth="1"/>
+    <col min="9" max="28" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4039,7 +5138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4053,7 +5152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4064,10 +5163,10 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -4078,7 +5177,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -4100,7 +5199,7 @@
       <c r="AA4"/>
       <c r="AB4"/>
     </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4121,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="14">
-        <v>0.37421428571428578</v>
+        <v>0.31</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -4144,7 +5243,7 @@
       <c r="AA5"/>
       <c r="AB5"/>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="13" t="s">
         <v>13</v>
@@ -4154,16 +5253,16 @@
         <v>11</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F6" s="14">
         <v>0.24779999999999999</v>
       </c>
       <c r="G6" s="14">
-        <v>0.52560000000000007</v>
+        <v>0.32</v>
       </c>
       <c r="H6" s="14">
-        <v>0.37421428571428578</v>
+        <v>0.31</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="13" t="s">
@@ -4188,7 +5287,7 @@
       <c r="AA6"/>
       <c r="AB6"/>
     </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
@@ -4226,7 +5325,7 @@
       <c r="AA7"/>
       <c r="AB7"/>
     </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
@@ -4239,7 +5338,7 @@
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -4262,7 +5361,7 @@
       <c r="AA8"/>
       <c r="AB8"/>
     </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -4274,14 +5373,944 @@
         <v>11</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="7">
+      <c r="F9" s="12">
+        <v>-1.0213531220517</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.37675517503754502</v>
+      </c>
+      <c r="H9" s="12">
+        <v>0.92326153885340301</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <v>0.35289999999999999</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="23">
+        <f t="shared" ref="H12:AB12" si="0">H17*$H$18</f>
+        <v>-3.1415700000000002</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="0"/>
+        <v>-2.8274130000000004</v>
+      </c>
+      <c r="J12" s="23">
+        <f t="shared" si="0"/>
+        <v>-2.5132560000000002</v>
+      </c>
+      <c r="K12" s="23">
+        <f t="shared" si="0"/>
+        <v>-2.1990990000000004</v>
+      </c>
+      <c r="L12" s="23">
+        <f t="shared" si="0"/>
+        <v>-1.8849420000000003</v>
+      </c>
+      <c r="M12" s="23">
+        <f t="shared" si="0"/>
+        <v>-1.5707850000000001</v>
+      </c>
+      <c r="N12" s="23">
+        <f t="shared" si="0"/>
+        <v>-1.2566280000000001</v>
+      </c>
+      <c r="O12" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.94247100000000017</v>
+      </c>
+      <c r="P12" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.62831400000000004</v>
+      </c>
+      <c r="Q12" s="23">
+        <f t="shared" si="0"/>
+        <v>-0.31415700000000002</v>
+      </c>
+      <c r="R12" s="28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.31415700000000002</v>
+      </c>
+      <c r="T12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.62831400000000004</v>
+      </c>
+      <c r="U12" s="23">
+        <f t="shared" si="0"/>
+        <v>0.94247100000000017</v>
+      </c>
+      <c r="V12" s="23">
+        <f t="shared" si="0"/>
+        <v>1.2566280000000001</v>
+      </c>
+      <c r="W12" s="23">
+        <f t="shared" si="0"/>
+        <v>1.5707850000000001</v>
+      </c>
+      <c r="X12" s="23">
+        <f t="shared" si="0"/>
+        <v>1.8849420000000003</v>
+      </c>
+      <c r="Y12" s="23">
+        <f t="shared" si="0"/>
+        <v>2.1990990000000004</v>
+      </c>
+      <c r="Z12" s="23">
+        <f t="shared" si="0"/>
+        <v>2.5132560000000002</v>
+      </c>
+      <c r="AA12" s="23">
+        <f t="shared" si="0"/>
+        <v>2.8274130000000004</v>
+      </c>
+      <c r="AB12" s="23">
+        <f t="shared" si="0"/>
+        <v>3.1415700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="22">
+        <f>H15*$H$16</f>
+        <v>-0.18</v>
+      </c>
+      <c r="I13" s="22">
+        <f t="shared" ref="I13:AB13" si="1">I15*$H$16</f>
+        <v>-0.1638</v>
+      </c>
+      <c r="J13" s="22">
+        <f t="shared" si="1"/>
+        <v>-0.14616000000000001</v>
+      </c>
+      <c r="K13" s="22">
+        <f t="shared" si="1"/>
+        <v>-0.12672</v>
+      </c>
+      <c r="L13" s="22">
+        <f t="shared" si="1"/>
+        <v>-0.10668000000000001</v>
+      </c>
+      <c r="M13" s="22">
+        <f t="shared" si="1"/>
+        <v>-8.7719999999999992E-2</v>
+      </c>
+      <c r="N13" s="22">
+        <f t="shared" si="1"/>
+        <v>-7.0679999999999993E-2</v>
+      </c>
+      <c r="O13" s="22">
+        <f t="shared" si="1"/>
+        <v>-5.4719999999999998E-2</v>
+      </c>
+      <c r="P13" s="22">
+        <f t="shared" si="1"/>
+        <v>-3.8159999999999999E-2</v>
+      </c>
+      <c r="Q13" s="22">
+        <f t="shared" si="1"/>
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="R13" s="26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="22">
+        <f t="shared" si="1"/>
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="T13" s="22">
+        <f t="shared" si="1"/>
+        <v>3.8159999999999999E-2</v>
+      </c>
+      <c r="U13" s="22">
+        <f t="shared" si="1"/>
+        <v>5.4719999999999998E-2</v>
+      </c>
+      <c r="V13" s="22">
+        <f t="shared" si="1"/>
+        <v>7.0679999999999993E-2</v>
+      </c>
+      <c r="W13" s="22">
+        <f t="shared" si="1"/>
+        <v>8.7780000000000011E-2</v>
+      </c>
+      <c r="X13" s="22">
+        <f t="shared" si="1"/>
+        <v>0.10668000000000001</v>
+      </c>
+      <c r="Y13" s="22">
+        <f t="shared" si="1"/>
+        <v>0.12672</v>
+      </c>
+      <c r="Z13" s="22">
+        <f t="shared" si="1"/>
+        <v>0.14616000000000001</v>
+      </c>
+      <c r="AA13" s="22">
+        <f t="shared" si="1"/>
+        <v>0.1638</v>
+      </c>
+      <c r="AB13" s="22">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="12">
+        <v>-0.3</v>
+      </c>
+      <c r="I15">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="J15">
+        <v>-0.24360000000000001</v>
+      </c>
+      <c r="K15">
+        <v>-0.2112</v>
+      </c>
+      <c r="L15">
+        <v>-0.17780000000000001</v>
+      </c>
+      <c r="M15">
+        <v>-0.1462</v>
+      </c>
+      <c r="N15">
+        <v>-0.1178</v>
+      </c>
+      <c r="O15">
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="P15">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+      <c r="Q15">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T15">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="U15">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="V15">
+        <v>0.1178</v>
+      </c>
+      <c r="W15">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="X15">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="Y15">
+        <v>0.2112</v>
+      </c>
+      <c r="Z15">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="AA15">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AB15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="6">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="H17" s="12">
+        <v>-180</v>
+      </c>
+      <c r="I17">
+        <v>-162</v>
+      </c>
+      <c r="J17">
+        <v>-144</v>
+      </c>
+      <c r="K17">
+        <v>-126</v>
+      </c>
+      <c r="L17">
+        <v>-108</v>
+      </c>
+      <c r="M17">
+        <v>-90</v>
+      </c>
+      <c r="N17">
+        <v>-72</v>
+      </c>
+      <c r="O17">
+        <v>-54</v>
+      </c>
+      <c r="P17">
+        <v>-36</v>
+      </c>
+      <c r="Q17">
+        <v>-18</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>18</v>
+      </c>
+      <c r="T17">
+        <v>36</v>
+      </c>
+      <c r="U17">
+        <v>54</v>
+      </c>
+      <c r="V17">
+        <v>72</v>
+      </c>
+      <c r="W17">
+        <v>90</v>
+      </c>
+      <c r="X17">
+        <v>108</v>
+      </c>
+      <c r="Y17">
+        <v>126</v>
+      </c>
+      <c r="Z17">
+        <v>144</v>
+      </c>
+      <c r="AA17">
+        <v>162</v>
+      </c>
+      <c r="AB17">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="6">
+        <f>3.14157/180</f>
+        <v>1.7453166666666669E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6">
+        <v>5</v>
+      </c>
+      <c r="K20" s="7">
+        <v>-1.0213531220517</v>
+      </c>
+      <c r="L20" s="7">
+        <v>0.37675517503754502</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.92326153885340301</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6">
+        <v>4</v>
+      </c>
+      <c r="K21" s="21">
+        <v>-0.91420000000000001</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0.3755</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0.85660000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6">
+        <f>I20-I21</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+    </row>
+    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="K23" s="7">
+        <v>-1.2171799999999999</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.45050000000000001</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0.82255</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="K24" s="14">
+        <f>K23+K20-K21</f>
         <v>-1.3243331220516996</v>
       </c>
-      <c r="G9" s="7">
+      <c r="L24" s="14">
+        <f>L23+L20-L21</f>
         <v>0.45175517503754498</v>
       </c>
-      <c r="H9" s="7">
+      <c r="M24" s="14">
+        <f>M23+M20-M21</f>
         <v>0.88921153885340298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="K26" s="12">
+        <v>1.2710307999999999</v>
+      </c>
+      <c r="L26" s="12">
+        <v>0.55801000000000001</v>
+      </c>
+      <c r="M26" s="12">
+        <v>1.2685808000000001</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="K27" s="21">
+        <f>K26+K20-K21</f>
+        <v>1.1638776779483</v>
+      </c>
+      <c r="L27" s="21">
+        <f>L26+L20-L21</f>
+        <v>0.55926517503754503</v>
+      </c>
+      <c r="M27" s="21">
+        <f>M26+M20-M21</f>
+        <v>1.3352423388534029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="H29" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A24:B25 A4:B10 A12:B13">
+    <cfRule type="cellIs" dxfId="18" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B27">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E10 E12:E13">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B11">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE151F8-FCB7-48C3-AF57-805C6484F0E1}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:AB29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="S33" sqref="S33"/>
+      <selection pane="topRight" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="28" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.3478</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.6113615</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.3478</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.36</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.6113615</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>19.792000000000002</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+    </row>
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12">
+        <v>50</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="12">
+        <v>1.18</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0.55926517503754503</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1.34</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -4304,7 +6333,7 @@
       <c r="AA9"/>
       <c r="AB9"/>
     </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
@@ -4317,7 +6346,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12">
-        <v>0.35289999999999999</v>
+        <v>0.78888879999999995</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -4340,7 +6369,7 @@
       <c r="AA10"/>
       <c r="AB10"/>
     </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -4378,7 +6407,785 @@
       <c r="AA11"/>
       <c r="AB11"/>
     </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="22">
+        <f>H16*$H$17</f>
+        <v>-3.1415700000000002</v>
+      </c>
+      <c r="I12" s="22">
+        <f t="shared" ref="I12:AB12" si="0">I16*$H$17</f>
+        <v>-2.8274130000000004</v>
+      </c>
+      <c r="J12" s="22">
+        <f t="shared" si="0"/>
+        <v>-2.5132560000000002</v>
+      </c>
+      <c r="K12" s="22">
+        <f t="shared" si="0"/>
+        <v>-2.1990990000000004</v>
+      </c>
+      <c r="L12" s="22">
+        <f t="shared" si="0"/>
+        <v>-1.8849420000000003</v>
+      </c>
+      <c r="M12" s="22">
+        <f t="shared" si="0"/>
+        <v>-1.5707850000000001</v>
+      </c>
+      <c r="N12" s="22">
+        <f t="shared" si="0"/>
+        <v>-1.2566280000000001</v>
+      </c>
+      <c r="O12" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.94247100000000017</v>
+      </c>
+      <c r="P12" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.62831400000000004</v>
+      </c>
+      <c r="Q12" s="22">
+        <f t="shared" si="0"/>
+        <v>-0.31415700000000002</v>
+      </c>
+      <c r="R12" s="26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.31415700000000002</v>
+      </c>
+      <c r="T12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.62831400000000004</v>
+      </c>
+      <c r="U12" s="22">
+        <f t="shared" si="0"/>
+        <v>0.94247100000000017</v>
+      </c>
+      <c r="V12" s="22">
+        <f t="shared" si="0"/>
+        <v>1.2566280000000001</v>
+      </c>
+      <c r="W12" s="22">
+        <f t="shared" si="0"/>
+        <v>1.5707850000000001</v>
+      </c>
+      <c r="X12" s="22">
+        <f t="shared" si="0"/>
+        <v>1.8849420000000003</v>
+      </c>
+      <c r="Y12" s="22">
+        <f t="shared" si="0"/>
+        <v>2.1990990000000004</v>
+      </c>
+      <c r="Z12" s="22">
+        <f t="shared" si="0"/>
+        <v>2.5132560000000002</v>
+      </c>
+      <c r="AA12" s="22">
+        <f t="shared" si="0"/>
+        <v>2.8274130000000004</v>
+      </c>
+      <c r="AB12" s="22">
+        <f t="shared" si="0"/>
+        <v>3.1415700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="22">
+        <v>-0.3</v>
+      </c>
+      <c r="I13" s="25">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="J13" s="25">
+        <v>-0.24360000000000001</v>
+      </c>
+      <c r="K13" s="25">
+        <v>-0.2112</v>
+      </c>
+      <c r="L13" s="25">
+        <v>-0.17780000000000001</v>
+      </c>
+      <c r="M13" s="25">
+        <v>-0.1462</v>
+      </c>
+      <c r="N13" s="25">
+        <v>-0.1178</v>
+      </c>
+      <c r="O13" s="25">
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="P13" s="25">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="R13" s="27">
+        <v>0</v>
+      </c>
+      <c r="S13" s="25">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T13" s="25">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="U13" s="25">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="V13" s="25">
+        <v>0.1178</v>
+      </c>
+      <c r="W13" s="25">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="X13" s="25">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="Y13" s="25">
+        <v>0.2112</v>
+      </c>
+      <c r="Z13" s="25">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="AA13" s="25">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AB13" s="25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="12">
+        <v>-180</v>
+      </c>
+      <c r="I16">
+        <v>-162</v>
+      </c>
+      <c r="J16">
+        <v>-144</v>
+      </c>
+      <c r="K16">
+        <v>-126</v>
+      </c>
+      <c r="L16">
+        <v>-108</v>
+      </c>
+      <c r="M16">
+        <v>-90</v>
+      </c>
+      <c r="N16">
+        <v>-72</v>
+      </c>
+      <c r="O16">
+        <v>-54</v>
+      </c>
+      <c r="P16">
+        <v>-36</v>
+      </c>
+      <c r="Q16">
+        <v>-18</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>18</v>
+      </c>
+      <c r="T16">
+        <v>36</v>
+      </c>
+      <c r="U16">
+        <v>54</v>
+      </c>
+      <c r="V16">
+        <v>72</v>
+      </c>
+      <c r="W16">
+        <v>90</v>
+      </c>
+      <c r="X16">
+        <v>108</v>
+      </c>
+      <c r="Y16">
+        <v>126</v>
+      </c>
+      <c r="Z16">
+        <v>144</v>
+      </c>
+      <c r="AA16">
+        <v>162</v>
+      </c>
+      <c r="AB16">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="H17" s="6">
+        <f>3.14157/180</f>
+        <v>1.7453166666666669E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="H29" s="16"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A24:B25 A4:B10 A12:B13">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:B27">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E10 E12:E13">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B11">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECBDE68-4E21-4C89-B4A9-ED23D7A49E52}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="S33" sqref="S33"/>
+      <selection pane="topRight" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="28" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+    </row>
+    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="14">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.11927</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.50249999999999995</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5" s="24">
+        <f>L5-F5</f>
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="Q5" s="24">
+        <f t="shared" ref="Q5:R5" si="0">M5-G5</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="24">
+        <f t="shared" si="0"/>
+        <v>0.38322999999999996</v>
+      </c>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+    </row>
+    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="14">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.11927</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12">
+        <v>19.792000000000002</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+    </row>
+    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12">
+        <v>50</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="7">
+        <v>-0.46200000000000002</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>0.48907</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+    </row>
+    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12">
+        <v>0.11558</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+    </row>
+    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="30">
+        <v>1</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+    </row>
+    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
@@ -4392,7 +7199,7 @@
       <c r="E12" s="5"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="22">
+      <c r="H12" s="29">
         <v>0.2</v>
       </c>
       <c r="I12" s="25"/>
@@ -4416,7 +7223,7 @@
       <c r="AA12" s="25"/>
       <c r="AB12" s="25"/>
     </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
         <v>30</v>
@@ -4429,7 +7236,7 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="22">
-        <v>0.4</v>
+        <v>0.17230999999999999</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -4452,9 +7259,9 @@
       <c r="AA13" s="25"/>
       <c r="AB13" s="25"/>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>11</v>
@@ -4466,7 +7273,7 @@
       <c r="E14" s="5"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="12">
+      <c r="H14" s="30">
         <v>0.2</v>
       </c>
       <c r="I14"/>
@@ -4490,27 +7297,39 @@
       <c r="AA14"/>
       <c r="AB14"/>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="H15" s="12">
-        <v>0.2</v>
+      <c r="F15" s="21">
+        <v>7.7869999999999995E-2</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0.10644000000000001</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
+      <c r="L15" s="6">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M15" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0.46785898384862201</v>
+      </c>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
@@ -4526,10 +7345,10 @@
       <c r="AA15"/>
       <c r="AB15"/>
     </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
@@ -4537,7 +7356,8 @@
       </c>
       <c r="E16" s="5"/>
       <c r="H16" s="6">
-        <v>0.4</v>
+        <f>0.01365</f>
+        <v>1.3650000000000001E-2</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -4560,26 +7380,18 @@
       <c r="AA16"/>
       <c r="AB16"/>
     </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
+    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="F17" s="6">
-        <v>0.22780000000000003</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.2</v>
-      </c>
       <c r="H17" s="6">
-        <v>0.33957326956290784</v>
+        <v>0.05</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -4602,189 +7414,216 @@
       <c r="AA17"/>
       <c r="AB17"/>
     </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
+    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="5"/>
-      <c r="H18" s="6">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-    </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="23">
+        <f>H23*$H$24</f>
+        <v>-3.1415700000000002</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" ref="I18:AB18" si="1">I23*$H$24</f>
+        <v>-2.8274130000000004</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="1"/>
+        <v>-2.5132560000000002</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="1"/>
+        <v>-2.1990990000000004</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="1"/>
+        <v>-1.8849420000000003</v>
+      </c>
+      <c r="M18" s="23">
+        <f t="shared" si="1"/>
+        <v>-1.5707850000000001</v>
+      </c>
+      <c r="N18" s="23">
+        <f t="shared" si="1"/>
+        <v>-1.2566280000000001</v>
+      </c>
+      <c r="O18" s="23">
+        <f t="shared" si="1"/>
+        <v>-0.94247100000000017</v>
+      </c>
+      <c r="P18" s="23">
+        <f t="shared" si="1"/>
+        <v>-0.62831400000000004</v>
+      </c>
+      <c r="Q18" s="23">
+        <f t="shared" si="1"/>
+        <v>-0.31415700000000002</v>
+      </c>
+      <c r="R18" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="23">
+        <f t="shared" si="1"/>
+        <v>0.31415700000000002</v>
+      </c>
+      <c r="T18" s="23">
+        <f t="shared" si="1"/>
+        <v>0.62831400000000004</v>
+      </c>
+      <c r="U18" s="23">
+        <f t="shared" si="1"/>
+        <v>0.94247100000000017</v>
+      </c>
+      <c r="V18" s="23">
+        <f t="shared" si="1"/>
+        <v>1.2566280000000001</v>
+      </c>
+      <c r="W18" s="23">
+        <f t="shared" si="1"/>
+        <v>1.5707850000000001</v>
+      </c>
+      <c r="X18" s="23">
+        <f t="shared" si="1"/>
+        <v>1.8849420000000003</v>
+      </c>
+      <c r="Y18" s="23">
+        <f t="shared" si="1"/>
+        <v>2.1990990000000004</v>
+      </c>
+      <c r="Z18" s="23">
+        <f t="shared" si="1"/>
+        <v>2.5132560000000002</v>
+      </c>
+      <c r="AA18" s="23">
+        <f t="shared" si="1"/>
+        <v>2.8274130000000004</v>
+      </c>
+      <c r="AB18" s="23">
+        <f t="shared" si="1"/>
+        <v>3.1415700000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="H19" s="6">
-        <v>0.05</v>
-      </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-    </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12">
-        <f>H24*$H$25</f>
-        <v>-3.1415700000000002</v>
-      </c>
-      <c r="I20" s="12">
-        <f t="shared" ref="I20:AB20" si="0">I24*$H$25</f>
-        <v>-2.8274130000000004</v>
-      </c>
-      <c r="J20" s="12">
-        <f t="shared" si="0"/>
-        <v>-2.5132560000000002</v>
-      </c>
-      <c r="K20" s="12">
-        <f t="shared" si="0"/>
-        <v>-2.1990990000000004</v>
-      </c>
-      <c r="L20" s="12">
-        <f t="shared" si="0"/>
-        <v>-1.8849420000000003</v>
-      </c>
-      <c r="M20" s="12">
-        <f t="shared" si="0"/>
-        <v>-1.5707850000000001</v>
-      </c>
-      <c r="N20" s="12">
-        <f t="shared" si="0"/>
-        <v>-1.2566280000000001</v>
-      </c>
-      <c r="O20" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.94247100000000017</v>
-      </c>
-      <c r="P20" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.62831400000000004</v>
-      </c>
-      <c r="Q20" s="12">
-        <f t="shared" si="0"/>
-        <v>-0.31415700000000002</v>
-      </c>
-      <c r="R20" s="12">
-        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="22">
+        <f>H18*$H$25*180/3.14159</f>
+        <v>-4.2893726928084193E-2</v>
+      </c>
+      <c r="I19" s="22">
+        <f t="shared" ref="I19:AB19" si="2">I18*$H$25*180/3.14159</f>
+        <v>-3.8604354235275778E-2</v>
+      </c>
+      <c r="J19" s="22">
+        <f t="shared" si="2"/>
+        <v>-3.431498154246735E-2</v>
+      </c>
+      <c r="K19" s="22">
+        <f t="shared" si="2"/>
+        <v>-3.0025608849658939E-2</v>
+      </c>
+      <c r="L19" s="22">
+        <f t="shared" si="2"/>
+        <v>-2.5736236156850518E-2</v>
+      </c>
+      <c r="M19" s="22">
+        <f t="shared" si="2"/>
+        <v>-2.1446863464042096E-2</v>
+      </c>
+      <c r="N19" s="22">
+        <f t="shared" si="2"/>
+        <v>-1.7157490771233675E-2</v>
+      </c>
+      <c r="O19" s="22">
+        <f t="shared" si="2"/>
+        <v>-1.2868118078425259E-2</v>
+      </c>
+      <c r="P19" s="22">
+        <f t="shared" si="2"/>
+        <v>-8.5787453856168375E-3</v>
+      </c>
+      <c r="Q19" s="22">
+        <f t="shared" si="2"/>
+        <v>-4.2893726928084188E-3</v>
+      </c>
+      <c r="R19" s="22">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S20" s="12">
-        <f t="shared" si="0"/>
-        <v>0.31415700000000002</v>
-      </c>
-      <c r="T20" s="12">
-        <f t="shared" si="0"/>
-        <v>0.62831400000000004</v>
-      </c>
-      <c r="U20" s="12">
-        <f t="shared" si="0"/>
-        <v>0.94247100000000017</v>
-      </c>
-      <c r="V20" s="12">
-        <f t="shared" si="0"/>
-        <v>1.2566280000000001</v>
-      </c>
-      <c r="W20" s="12">
-        <f t="shared" si="0"/>
-        <v>1.5707850000000001</v>
-      </c>
-      <c r="X20" s="12">
-        <f t="shared" si="0"/>
-        <v>1.8849420000000003</v>
-      </c>
-      <c r="Y20" s="12">
-        <f t="shared" si="0"/>
-        <v>2.1990990000000004</v>
-      </c>
-      <c r="Z20" s="12">
-        <f t="shared" si="0"/>
-        <v>2.5132560000000002</v>
-      </c>
-      <c r="AA20" s="12">
-        <f t="shared" si="0"/>
-        <v>2.8274130000000004</v>
-      </c>
-      <c r="AB20" s="12">
-        <f t="shared" si="0"/>
-        <v>3.1415700000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="S19" s="22">
+        <f t="shared" si="2"/>
+        <v>4.2893726928084188E-3</v>
+      </c>
+      <c r="T19" s="22">
+        <f t="shared" si="2"/>
+        <v>8.5787453856168375E-3</v>
+      </c>
+      <c r="U19" s="22">
+        <f t="shared" si="2"/>
+        <v>1.2868118078425259E-2</v>
+      </c>
+      <c r="V19" s="22">
+        <f t="shared" si="2"/>
+        <v>1.7157490771233675E-2</v>
+      </c>
+      <c r="W19" s="22">
+        <f t="shared" si="2"/>
+        <v>2.1446863464042096E-2</v>
+      </c>
+      <c r="X19" s="22">
+        <f t="shared" si="2"/>
+        <v>2.5736236156850518E-2</v>
+      </c>
+      <c r="Y19" s="22">
+        <f t="shared" si="2"/>
+        <v>3.0025608849658939E-2</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" si="2"/>
+        <v>3.431498154246735E-2</v>
+      </c>
+      <c r="AA19" s="22">
+        <f t="shared" si="2"/>
+        <v>3.8604354235275778E-2</v>
+      </c>
+      <c r="AB19" s="22">
+        <f t="shared" si="2"/>
+        <v>4.2893726928084193E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="15"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="12">
         <v>-0.3</v>
       </c>
@@ -4849,1869 +7688,151 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="6">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="12">
+        <v>-180</v>
+      </c>
+      <c r="I23">
+        <v>-162</v>
+      </c>
+      <c r="J23">
+        <v>-144</v>
+      </c>
+      <c r="K23">
+        <v>-126</v>
+      </c>
+      <c r="L23">
+        <v>-108</v>
+      </c>
+      <c r="M23">
+        <v>-90</v>
+      </c>
+      <c r="N23">
+        <v>-72</v>
+      </c>
+      <c r="O23">
+        <v>-54</v>
+      </c>
+      <c r="P23">
+        <v>-36</v>
+      </c>
+      <c r="Q23">
+        <v>-18</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>18</v>
+      </c>
+      <c r="T23">
+        <v>36</v>
+      </c>
+      <c r="U23">
+        <v>54</v>
+      </c>
+      <c r="V23">
+        <v>72</v>
+      </c>
+      <c r="W23">
+        <v>90</v>
+      </c>
+      <c r="X23">
+        <v>108</v>
+      </c>
+      <c r="Y23">
+        <v>126</v>
+      </c>
+      <c r="Z23">
+        <v>144</v>
+      </c>
+      <c r="AA23">
+        <v>162</v>
+      </c>
+      <c r="AB23">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="12">
-        <v>-180</v>
-      </c>
-      <c r="I24">
-        <v>-162</v>
-      </c>
-      <c r="J24">
-        <v>-144</v>
-      </c>
-      <c r="K24">
-        <v>-126</v>
-      </c>
-      <c r="L24">
-        <v>-108</v>
-      </c>
-      <c r="M24">
-        <v>-90</v>
-      </c>
-      <c r="N24">
-        <v>-72</v>
-      </c>
-      <c r="O24">
-        <v>-54</v>
-      </c>
-      <c r="P24">
-        <v>-36</v>
-      </c>
-      <c r="Q24">
-        <v>-18</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>18</v>
-      </c>
-      <c r="T24">
-        <v>36</v>
-      </c>
-      <c r="U24">
-        <v>54</v>
-      </c>
-      <c r="V24">
-        <v>72</v>
-      </c>
-      <c r="W24">
-        <v>90</v>
-      </c>
-      <c r="X24">
-        <v>108</v>
-      </c>
-      <c r="Y24">
-        <v>126</v>
-      </c>
-      <c r="Z24">
-        <v>144</v>
-      </c>
-      <c r="AA24">
-        <v>162</v>
-      </c>
-      <c r="AB24">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="15"/>
+      <c r="H24" s="6">
+        <f>3.14157/180</f>
+        <v>1.7453166666666669E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="H25" s="6">
-        <f>3.14157/180</f>
-        <v>1.7453166666666669E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <f>0.0002383</f>
+        <v>2.3829999999999999E-4</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="H37" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A32:B35 A4:B10 E5:E10 E12:E21 A12:B21">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11C41EB-00BD-4D32-9768-361F74323707}">
-  <sheetPr>
-    <tabColor rgb="FFFF9999"/>
-  </sheetPr>
-  <dimension ref="A1:AB29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="S33" sqref="S33"/>
-      <selection pane="topRight" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="N37" sqref="N37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="28" width="7.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0.31</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.32</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.31</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
-        <v>19.792000000000002</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
-        <v>10</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="12">
-        <v>-1.0213531220517</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.37675517503754502</v>
-      </c>
-      <c r="H9" s="12">
-        <v>0.92326153885340301</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
-        <v>0.35289999999999999</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="23">
-        <f t="shared" ref="H12:AB12" si="0">H17*$H$18</f>
-        <v>-3.1415700000000002</v>
-      </c>
-      <c r="I12" s="23">
-        <f t="shared" si="0"/>
-        <v>-2.8274130000000004</v>
-      </c>
-      <c r="J12" s="23">
-        <f t="shared" si="0"/>
-        <v>-2.5132560000000002</v>
-      </c>
-      <c r="K12" s="23">
-        <f t="shared" si="0"/>
-        <v>-2.1990990000000004</v>
-      </c>
-      <c r="L12" s="23">
-        <f t="shared" si="0"/>
-        <v>-1.8849420000000003</v>
-      </c>
-      <c r="M12" s="23">
-        <f t="shared" si="0"/>
-        <v>-1.5707850000000001</v>
-      </c>
-      <c r="N12" s="23">
-        <f t="shared" si="0"/>
-        <v>-1.2566280000000001</v>
-      </c>
-      <c r="O12" s="23">
-        <f t="shared" si="0"/>
-        <v>-0.94247100000000017</v>
-      </c>
-      <c r="P12" s="23">
-        <f t="shared" si="0"/>
-        <v>-0.62831400000000004</v>
-      </c>
-      <c r="Q12" s="23">
-        <f t="shared" si="0"/>
-        <v>-0.31415700000000002</v>
-      </c>
-      <c r="R12" s="28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="23">
-        <f t="shared" si="0"/>
-        <v>0.31415700000000002</v>
-      </c>
-      <c r="T12" s="23">
-        <f t="shared" si="0"/>
-        <v>0.62831400000000004</v>
-      </c>
-      <c r="U12" s="23">
-        <f t="shared" si="0"/>
-        <v>0.94247100000000017</v>
-      </c>
-      <c r="V12" s="23">
-        <f t="shared" si="0"/>
-        <v>1.2566280000000001</v>
-      </c>
-      <c r="W12" s="23">
-        <f t="shared" si="0"/>
-        <v>1.5707850000000001</v>
-      </c>
-      <c r="X12" s="23">
-        <f t="shared" si="0"/>
-        <v>1.8849420000000003</v>
-      </c>
-      <c r="Y12" s="23">
-        <f t="shared" si="0"/>
-        <v>2.1990990000000004</v>
-      </c>
-      <c r="Z12" s="23">
-        <f t="shared" si="0"/>
-        <v>2.5132560000000002</v>
-      </c>
-      <c r="AA12" s="23">
-        <f t="shared" si="0"/>
-        <v>2.8274130000000004</v>
-      </c>
-      <c r="AB12" s="23">
-        <f t="shared" si="0"/>
-        <v>3.1415700000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="22">
-        <f>H15*$H$16</f>
-        <v>-0.18</v>
-      </c>
-      <c r="I13" s="22">
-        <f t="shared" ref="I13:AB13" si="1">I15*$H$16</f>
-        <v>-0.1638</v>
-      </c>
-      <c r="J13" s="22">
-        <f t="shared" si="1"/>
-        <v>-0.14616000000000001</v>
-      </c>
-      <c r="K13" s="22">
-        <f t="shared" si="1"/>
-        <v>-0.12672</v>
-      </c>
-      <c r="L13" s="22">
-        <f t="shared" si="1"/>
-        <v>-0.10668000000000001</v>
-      </c>
-      <c r="M13" s="22">
-        <f t="shared" si="1"/>
-        <v>-8.7719999999999992E-2</v>
-      </c>
-      <c r="N13" s="22">
-        <f t="shared" si="1"/>
-        <v>-7.0679999999999993E-2</v>
-      </c>
-      <c r="O13" s="22">
-        <f t="shared" si="1"/>
-        <v>-5.4719999999999998E-2</v>
-      </c>
-      <c r="P13" s="22">
-        <f t="shared" si="1"/>
-        <v>-3.8159999999999999E-2</v>
-      </c>
-      <c r="Q13" s="22">
-        <f t="shared" si="1"/>
-        <v>-1.9800000000000002E-2</v>
-      </c>
-      <c r="R13" s="26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="22">
-        <f t="shared" si="1"/>
-        <v>1.9800000000000002E-2</v>
-      </c>
-      <c r="T13" s="22">
-        <f t="shared" si="1"/>
-        <v>3.8159999999999999E-2</v>
-      </c>
-      <c r="U13" s="22">
-        <f t="shared" si="1"/>
-        <v>5.4719999999999998E-2</v>
-      </c>
-      <c r="V13" s="22">
-        <f t="shared" si="1"/>
-        <v>7.0679999999999993E-2</v>
-      </c>
-      <c r="W13" s="22">
-        <f t="shared" si="1"/>
-        <v>8.7780000000000011E-2</v>
-      </c>
-      <c r="X13" s="22">
-        <f t="shared" si="1"/>
-        <v>0.10668000000000001</v>
-      </c>
-      <c r="Y13" s="22">
-        <f t="shared" si="1"/>
-        <v>0.12672</v>
-      </c>
-      <c r="Z13" s="22">
-        <f t="shared" si="1"/>
-        <v>0.14616000000000001</v>
-      </c>
-      <c r="AA13" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1638</v>
-      </c>
-      <c r="AB13" s="22">
-        <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="12">
-        <v>-0.3</v>
-      </c>
-      <c r="I15">
-        <v>-0.27300000000000002</v>
-      </c>
-      <c r="J15">
-        <v>-0.24360000000000001</v>
-      </c>
-      <c r="K15">
-        <v>-0.2112</v>
-      </c>
-      <c r="L15">
-        <v>-0.17780000000000001</v>
-      </c>
-      <c r="M15">
-        <v>-0.1462</v>
-      </c>
-      <c r="N15">
-        <v>-0.1178</v>
-      </c>
-      <c r="O15">
-        <v>-9.1200000000000003E-2</v>
-      </c>
-      <c r="P15">
-        <v>-6.3600000000000004E-2</v>
-      </c>
-      <c r="Q15">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="T15">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="U15">
-        <v>9.1200000000000003E-2</v>
-      </c>
-      <c r="V15">
-        <v>0.1178</v>
-      </c>
-      <c r="W15">
-        <v>0.14630000000000001</v>
-      </c>
-      <c r="X15">
-        <v>0.17780000000000001</v>
-      </c>
-      <c r="Y15">
-        <v>0.2112</v>
-      </c>
-      <c r="Z15">
-        <v>0.24360000000000001</v>
-      </c>
-      <c r="AA15">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="AB15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6">
-        <f>0.6</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="H17" s="12">
-        <v>-180</v>
-      </c>
-      <c r="I17">
-        <v>-162</v>
-      </c>
-      <c r="J17">
-        <v>-144</v>
-      </c>
-      <c r="K17">
-        <v>-126</v>
-      </c>
-      <c r="L17">
-        <v>-108</v>
-      </c>
-      <c r="M17">
-        <v>-90</v>
-      </c>
-      <c r="N17">
-        <v>-72</v>
-      </c>
-      <c r="O17">
-        <v>-54</v>
-      </c>
-      <c r="P17">
-        <v>-36</v>
-      </c>
-      <c r="Q17">
-        <v>-18</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>18</v>
-      </c>
-      <c r="T17">
-        <v>36</v>
-      </c>
-      <c r="U17">
-        <v>54</v>
-      </c>
-      <c r="V17">
-        <v>72</v>
-      </c>
-      <c r="W17">
-        <v>90</v>
-      </c>
-      <c r="X17">
-        <v>108</v>
-      </c>
-      <c r="Y17">
-        <v>126</v>
-      </c>
-      <c r="Z17">
-        <v>144</v>
-      </c>
-      <c r="AA17">
-        <v>162</v>
-      </c>
-      <c r="AB17">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6">
-        <f>3.14157/180</f>
-        <v>1.7453166666666669E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="6">
-        <v>5</v>
-      </c>
-      <c r="K20" s="7">
-        <v>-1.0213531220517</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0.37675517503754502</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0.92326153885340301</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6">
-        <v>4</v>
-      </c>
-      <c r="K21" s="21">
-        <v>-0.91420000000000001</v>
-      </c>
-      <c r="L21" s="21">
-        <v>0.3755</v>
-      </c>
-      <c r="M21" s="21">
-        <v>0.85660000000000003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6">
-        <f>I20-I21</f>
-        <v>1</v>
-      </c>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-    </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="K23" s="7">
-        <v>-1.2171799999999999</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0.45050000000000001</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0.82255</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="K24" s="14">
-        <f>K23+K20-K21</f>
-        <v>-1.3243331220516996</v>
-      </c>
-      <c r="L24" s="14">
-        <f>L23+L20-L21</f>
-        <v>0.45175517503754498</v>
-      </c>
-      <c r="M24" s="14">
-        <f>M23+M20-M21</f>
-        <v>0.88921153885340298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="K26" s="12">
-        <v>1.2710307999999999</v>
-      </c>
-      <c r="L26" s="12">
-        <v>0.55801000000000001</v>
-      </c>
-      <c r="M26" s="12">
-        <v>1.2685808000000001</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="K27" s="21">
-        <f>K26+K20-K21</f>
-        <v>1.1638776779483</v>
-      </c>
-      <c r="L27" s="21">
-        <f>L26+L20-L21</f>
-        <v>0.55926517503754503</v>
-      </c>
-      <c r="M27" s="21">
-        <f>M26+M20-M21</f>
-        <v>1.3352423388534029</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="15"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="15"/>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="H29" s="16"/>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E30" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A24:B25 A4:B10 A12:B13">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B27">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+  <conditionalFormatting sqref="A23:B26 A4:B10 E5:E10 E12:E19 A12:B19">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E10 E12:E13">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE151F8-FCB7-48C3-AF57-805C6484F0E1}">
-  <sheetPr>
-    <tabColor rgb="FFFF9999"/>
-  </sheetPr>
-  <dimension ref="A1:AB29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="S33" sqref="S33"/>
-      <selection pane="topRight" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="S33" sqref="S33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="28" width="7.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.3478</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0.6113615</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0.3478</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.36</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.6113615</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
-        <v>19.792000000000002</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
-        <v>10</v>
-      </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="12">
-        <v>1.18</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0.55926517503754503</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1.34</v>
-      </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
-        <v>0.78888879999999995</v>
-      </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="22">
-        <f>H16*$H$17</f>
-        <v>-3.1415700000000002</v>
-      </c>
-      <c r="I12" s="22">
-        <f t="shared" ref="I12:AB12" si="0">I16*$H$17</f>
-        <v>-2.8274130000000004</v>
-      </c>
-      <c r="J12" s="22">
-        <f t="shared" si="0"/>
-        <v>-2.5132560000000002</v>
-      </c>
-      <c r="K12" s="22">
-        <f t="shared" si="0"/>
-        <v>-2.1990990000000004</v>
-      </c>
-      <c r="L12" s="22">
-        <f t="shared" si="0"/>
-        <v>-1.8849420000000003</v>
-      </c>
-      <c r="M12" s="22">
-        <f t="shared" si="0"/>
-        <v>-1.5707850000000001</v>
-      </c>
-      <c r="N12" s="22">
-        <f t="shared" si="0"/>
-        <v>-1.2566280000000001</v>
-      </c>
-      <c r="O12" s="22">
-        <f t="shared" si="0"/>
-        <v>-0.94247100000000017</v>
-      </c>
-      <c r="P12" s="22">
-        <f t="shared" si="0"/>
-        <v>-0.62831400000000004</v>
-      </c>
-      <c r="Q12" s="22">
-        <f t="shared" si="0"/>
-        <v>-0.31415700000000002</v>
-      </c>
-      <c r="R12" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="22">
-        <f t="shared" si="0"/>
-        <v>0.31415700000000002</v>
-      </c>
-      <c r="T12" s="22">
-        <f t="shared" si="0"/>
-        <v>0.62831400000000004</v>
-      </c>
-      <c r="U12" s="22">
-        <f t="shared" si="0"/>
-        <v>0.94247100000000017</v>
-      </c>
-      <c r="V12" s="22">
-        <f t="shared" si="0"/>
-        <v>1.2566280000000001</v>
-      </c>
-      <c r="W12" s="22">
-        <f t="shared" si="0"/>
-        <v>1.5707850000000001</v>
-      </c>
-      <c r="X12" s="22">
-        <f t="shared" si="0"/>
-        <v>1.8849420000000003</v>
-      </c>
-      <c r="Y12" s="22">
-        <f t="shared" si="0"/>
-        <v>2.1990990000000004</v>
-      </c>
-      <c r="Z12" s="22">
-        <f t="shared" si="0"/>
-        <v>2.5132560000000002</v>
-      </c>
-      <c r="AA12" s="22">
-        <f t="shared" si="0"/>
-        <v>2.8274130000000004</v>
-      </c>
-      <c r="AB12" s="22">
-        <f t="shared" si="0"/>
-        <v>3.1415700000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="22">
-        <v>-0.3</v>
-      </c>
-      <c r="I13" s="25">
-        <v>-0.27300000000000002</v>
-      </c>
-      <c r="J13" s="25">
-        <v>-0.24360000000000001</v>
-      </c>
-      <c r="K13" s="25">
-        <v>-0.2112</v>
-      </c>
-      <c r="L13" s="25">
-        <v>-0.17780000000000001</v>
-      </c>
-      <c r="M13" s="25">
-        <v>-0.1462</v>
-      </c>
-      <c r="N13" s="25">
-        <v>-0.1178</v>
-      </c>
-      <c r="O13" s="25">
-        <v>-9.1200000000000003E-2</v>
-      </c>
-      <c r="P13" s="25">
-        <v>-6.3600000000000004E-2</v>
-      </c>
-      <c r="Q13" s="25">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="R13" s="27">
-        <v>0</v>
-      </c>
-      <c r="S13" s="25">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="T13" s="25">
-        <v>6.3600000000000004E-2</v>
-      </c>
-      <c r="U13" s="25">
-        <v>9.1200000000000003E-2</v>
-      </c>
-      <c r="V13" s="25">
-        <v>0.1178</v>
-      </c>
-      <c r="W13" s="25">
-        <v>0.14630000000000001</v>
-      </c>
-      <c r="X13" s="25">
-        <v>0.17780000000000001</v>
-      </c>
-      <c r="Y13" s="25">
-        <v>0.2112</v>
-      </c>
-      <c r="Z13" s="25">
-        <v>0.24360000000000001</v>
-      </c>
-      <c r="AA13" s="25">
-        <v>0.27300000000000002</v>
-      </c>
-      <c r="AB13" s="25">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="12">
-        <v>-180</v>
-      </c>
-      <c r="I16">
-        <v>-162</v>
-      </c>
-      <c r="J16">
-        <v>-144</v>
-      </c>
-      <c r="K16">
-        <v>-126</v>
-      </c>
-      <c r="L16">
-        <v>-108</v>
-      </c>
-      <c r="M16">
-        <v>-90</v>
-      </c>
-      <c r="N16">
-        <v>-72</v>
-      </c>
-      <c r="O16">
-        <v>-54</v>
-      </c>
-      <c r="P16">
-        <v>-36</v>
-      </c>
-      <c r="Q16">
-        <v>-18</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>18</v>
-      </c>
-      <c r="T16">
-        <v>36</v>
-      </c>
-      <c r="U16">
-        <v>54</v>
-      </c>
-      <c r="V16">
-        <v>72</v>
-      </c>
-      <c r="W16">
-        <v>90</v>
-      </c>
-      <c r="X16">
-        <v>108</v>
-      </c>
-      <c r="Y16">
-        <v>126</v>
-      </c>
-      <c r="Z16">
-        <v>144</v>
-      </c>
-      <c r="AA16">
-        <v>162</v>
-      </c>
-      <c r="AB16">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="H17" s="6">
-        <f>3.14157/180</f>
-        <v>1.7453166666666669E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="15"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="H29" s="16"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A24:B25 A4:B10 A12:B13">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26:B27">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E10 E12:E13">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A27">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack_Column.xlsx
+++ b/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack_Column.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Steer\Rack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Steer\Rack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F06C44-9C28-48FE-8ED5-75C9D5780850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEA3D2F-A204-466E-B35C-79E7500682EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1530" windowWidth="20700" windowHeight="10110" tabRatio="869" activeTab="6" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="30240" yWindow="1065" windowWidth="27090" windowHeight="12915" tabRatio="869" activeTab="2" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="RWheel_HambaLG_f" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="63">
   <si>
     <t>Units</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Bus Makhulu orig</t>
   </si>
   <si>
-    <t>Orig</t>
-  </si>
-  <si>
     <t>WheelDrivenRack1UJoint</t>
   </si>
   <si>
@@ -217,6 +214,21 @@
   </si>
   <si>
     <t>FSAE</t>
+  </si>
+  <si>
+    <t>Original values Pinion sMount</t>
+  </si>
+  <si>
+    <t>Original values Rack sMount</t>
+  </si>
+  <si>
+    <t>Offset (original - current)</t>
+  </si>
+  <si>
+    <t>Pinion sMount is calculated</t>
+  </si>
+  <si>
+    <t>Pinion sMount taken from WDrivenRack_HambaLG_f</t>
   </si>
 </sst>
 </file>
@@ -302,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -357,6 +369,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1035,7 +1049,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1044,16 +1058,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7608FA9-0BFE-404C-A393-1326355D2D0C}">
   <sheetPr>
-    <tabColor rgb="FFFF9999"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,14 +1174,14 @@
       <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="32">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G5" s="33">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
-        <v>0.37421428571428578</v>
+      <c r="H5" s="32">
+        <v>0.24</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -1202,14 +1216,14 @@
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.52560000000000007</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.37421428571428578</v>
+      <c r="F6" s="32">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.24</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="13" t="s">
@@ -1430,7 +1444,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1920,16 +1934,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74761B87-7C75-4A68-92A3-095A536CD0F0}">
   <sheetPr>
-    <tabColor rgb="FFFF9999"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,12 +2020,14 @@
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
-      <c r="P4"/>
+      <c r="P4" t="s">
+        <v>60</v>
+      </c>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -2038,14 +2054,14 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="32">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G5" s="33">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
-        <v>0.37421428571428578</v>
+      <c r="H5" s="32">
+        <v>0.24</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -2062,7 +2078,7 @@
       <c r="O5"/>
       <c r="P5" s="24">
         <f>L5-F5</f>
-        <v>5.2199999999999996E-2</v>
+        <v>0.1462</v>
       </c>
       <c r="Q5" s="24">
         <f t="shared" ref="Q5:R5" si="0">M5-G5</f>
@@ -2070,13 +2086,13 @@
       </c>
       <c r="R5" s="24">
         <f t="shared" si="0"/>
-        <v>0.12828571428571417</v>
+        <v>0.26249999999999996</v>
       </c>
       <c r="S5"/>
       <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="14"/>
       <c r="X5"/>
       <c r="Y5"/>
       <c r="Z5"/>
@@ -2095,14 +2111,14 @@
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.52560000000000007</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.37421428571428578</v>
+      <c r="F6" s="32">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.24</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="13" t="s">
@@ -2118,9 +2134,9 @@
       <c r="R6"/>
       <c r="S6"/>
       <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
       <c r="X6"/>
       <c r="Y6"/>
       <c r="Z6"/>
@@ -2327,7 +2343,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -2514,7 +2530,9 @@
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
-      <c r="L17"/>
+      <c r="L17" t="s">
+        <v>58</v>
+      </c>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
@@ -2546,7 +2564,7 @@
       <c r="E18" s="5"/>
       <c r="F18" s="21">
         <f>L18-P5</f>
-        <v>0.22780000000000003</v>
+        <v>0.13380000000000003</v>
       </c>
       <c r="G18" s="21">
         <f>M18-Q5</f>
@@ -2554,7 +2572,7 @@
       </c>
       <c r="H18" s="21">
         <f>N18-R5</f>
-        <v>0.33957326956290784</v>
+        <v>0.20535898384862206</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -2569,7 +2587,9 @@
         <v>0.46785898384862201</v>
       </c>
       <c r="O18"/>
-      <c r="P18"/>
+      <c r="P18" t="s">
+        <v>61</v>
+      </c>
       <c r="Q18"/>
       <c r="R18"/>
       <c r="S18"/>
@@ -3093,16 +3113,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F335037-821E-41A4-8D2F-E525D667C97D}">
   <sheetPr>
-    <tabColor rgb="FFFF9999"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,14 +3229,14 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="32">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G5" s="33">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
-        <v>0.37421428571428578</v>
+      <c r="H5" s="32">
+        <v>0.24</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -3251,14 +3271,14 @@
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.52560000000000007</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.37421428571428578</v>
+      <c r="F6" s="32">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.24</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="13" t="s">
@@ -3483,7 +3503,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -3701,18 +3721,20 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6">
-        <v>0.22780000000000003</v>
+        <v>0.13380000000000003</v>
       </c>
       <c r="G18" s="6">
         <v>0.2</v>
       </c>
       <c r="H18" s="6">
-        <v>0.33957326956290784</v>
+        <v>0.20535898384862206</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18"/>
+      <c r="L18" t="s">
+        <v>62</v>
+      </c>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
@@ -4265,7 +4287,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AC622F-3DB9-4F16-B5C0-4EC8FC6B4193}">
   <sheetPr>
-    <tabColor rgb="FFFF9999"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AB38"/>
   <sheetViews>
@@ -4274,7 +4296,7 @@
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4381,14 +4403,14 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="32">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G5" s="33">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
-        <v>0.37421428571428578</v>
+      <c r="H5" s="32">
+        <v>0.24</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -4423,14 +4445,14 @@
       <c r="E6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.52560000000000007</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.37421428571428578</v>
+      <c r="F6" s="32">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.24</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="13" t="s">
@@ -4655,7 +4677,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -4873,18 +4895,20 @@
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="6">
-        <v>0.22780000000000003</v>
+        <v>0.13380000000000003</v>
       </c>
       <c r="G18" s="6">
         <v>0.2</v>
       </c>
       <c r="H18" s="6">
-        <v>0.33957326956290784</v>
+        <v>0.20535898384862206</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
-      <c r="L18"/>
+      <c r="L18" t="s">
+        <v>62</v>
+      </c>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
@@ -5351,7 +5375,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11C41EB-00BD-4D32-9768-361F74323707}">
   <sheetPr>
-    <tabColor rgb="FFFF9999"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
@@ -5360,7 +5384,7 @@
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5467,14 +5491,14 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="32">
+        <v>0.13708300000000001</v>
+      </c>
+      <c r="G5" s="33">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
-        <v>0.31</v>
+      <c r="H5" s="32">
+        <v>0.20499999999999999</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -5509,14 +5533,14 @@
       <c r="E6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="14">
-        <v>0.24779999999999999</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.32</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0.31</v>
+      <c r="F6" s="32">
+        <v>0.13708300000000001</v>
+      </c>
+      <c r="G6" s="32">
+        <v>0.439</v>
+      </c>
+      <c r="H6" s="32">
+        <v>0.20499999999999999</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="13" t="s">
@@ -5743,7 +5767,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -6324,7 +6348,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE151F8-FCB7-48C3-AF57-805C6484F0E1}">
   <sheetPr>
-    <tabColor rgb="FFFF9999"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
@@ -6333,7 +6357,7 @@
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6440,14 +6464,14 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14">
-        <v>0.3478</v>
+      <c r="F5" s="32">
+        <v>0.2238</v>
       </c>
       <c r="G5" s="12">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
-        <v>0.6113615</v>
+      <c r="H5" s="32">
+        <v>0.33</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -6482,14 +6506,14 @@
       <c r="E6" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="14">
-        <v>0.3478</v>
-      </c>
-      <c r="G6" s="14">
+      <c r="F6" s="32">
+        <v>0.2238</v>
+      </c>
+      <c r="G6" s="32">
         <v>0.36</v>
       </c>
-      <c r="H6" s="14">
-        <v>0.6113615</v>
+      <c r="H6" s="32">
+        <v>0.33</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="13" t="s">
@@ -6714,7 +6738,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -7132,12 +7156,12 @@
   </sheetPr>
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7194,7 +7218,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -7208,14 +7232,12 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
-      <c r="L4" t="s">
-        <v>53</v>
-      </c>
+      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
@@ -7258,28 +7280,13 @@
       <c r="I5"/>
       <c r="J5"/>
       <c r="K5"/>
-      <c r="L5" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="M5" s="12">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0.50249999999999995</v>
-      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="7"/>
       <c r="O5"/>
-      <c r="P5" s="24">
-        <f>L5-F5</f>
-        <v>0.20949999999999999</v>
-      </c>
-      <c r="Q5" s="24">
-        <f t="shared" ref="Q5:R5" si="0">M5-G5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="24">
-        <f t="shared" si="0"/>
-        <v>0.38322999999999996</v>
-      </c>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
       <c r="S5"/>
       <c r="T5"/>
       <c r="U5"/>
@@ -7535,7 +7542,7 @@
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -7694,15 +7701,6 @@
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
-      <c r="L16" s="6">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0.46785898384862201</v>
-      </c>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
@@ -7808,83 +7806,83 @@
         <v>-3.1415700000000002</v>
       </c>
       <c r="I19" s="23">
-        <f t="shared" ref="I19:AB19" si="1">I24*$H$25</f>
+        <f t="shared" ref="I19:AB19" si="0">I24*$H$25</f>
         <v>-2.8274130000000004</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
       <c r="K19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
       <c r="L19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
       <c r="M19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
       <c r="Q19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
       <c r="R19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
       <c r="V19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
       <c r="W19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
       <c r="X19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
       <c r="Y19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
       <c r="Z19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
       <c r="AA19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
       <c r="AB19" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
@@ -7907,83 +7905,83 @@
         <v>-4.2893726928084193E-2</v>
       </c>
       <c r="I20" s="22">
-        <f t="shared" ref="I20:AB20" si="2">I19*$H$26*180/3.14159</f>
+        <f t="shared" ref="I20:AB20" si="1">I19*$H$26*180/3.14159</f>
         <v>-3.8604354235275778E-2</v>
       </c>
       <c r="J20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.431498154246735E-2</v>
       </c>
       <c r="K20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-3.0025608849658939E-2</v>
       </c>
       <c r="L20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.5736236156850518E-2</v>
       </c>
       <c r="M20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-2.1446863464042096E-2</v>
       </c>
       <c r="N20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.7157490771233675E-2</v>
       </c>
       <c r="O20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-1.2868118078425259E-2</v>
       </c>
       <c r="P20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-8.5787453856168375E-3</v>
       </c>
       <c r="Q20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>-4.2893726928084188E-3</v>
       </c>
       <c r="R20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2893726928084188E-3</v>
       </c>
       <c r="T20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.5787453856168375E-3</v>
       </c>
       <c r="U20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2868118078425259E-2</v>
       </c>
       <c r="V20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.7157490771233675E-2</v>
       </c>
       <c r="W20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.1446863464042096E-2</v>
       </c>
       <c r="X20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.5736236156850518E-2</v>
       </c>
       <c r="Y20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0025608849658939E-2</v>
       </c>
       <c r="Z20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.431498154246735E-2</v>
       </c>
       <c r="AA20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.8604354235275778E-2</v>
       </c>
       <c r="AB20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2893726928084193E-2</v>
       </c>
     </row>
@@ -8154,7 +8152,7 @@
         <v>2.3829999999999999E-4</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">

--- a/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack_Column.xlsx
+++ b/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack_Column.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Steer\Rack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Steer\Rack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEA3D2F-A204-466E-B35C-79E7500682EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D54D6A-EE2E-4EBB-BF21-FC6EF9429BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="1065" windowWidth="27090" windowHeight="12915" tabRatio="869" activeTab="2" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="25665" windowHeight="11295" tabRatio="869" firstSheet="1" activeTab="7" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="RWheel_HambaLG_f" sheetId="8" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="RWheel_Hamba_f" sheetId="7" r:id="rId5"/>
     <sheet name="RWheel_Bus_Makhulu_f" sheetId="6" r:id="rId6"/>
     <sheet name="WDrivenRack_1UJ_Achilles" sheetId="13" r:id="rId7"/>
+    <sheet name="WDrivenRack_1UJ_Ch2_Achilles" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="64">
   <si>
     <t>Units</t>
   </si>
@@ -230,6 +231,9 @@
   <si>
     <t>Pinion sMount taken from WDrivenRack_HambaLG_f</t>
   </si>
+  <si>
+    <t>WheelDrivenRack1UJoint_Ch2_Achilles</t>
+  </si>
 </sst>
 </file>
 
@@ -314,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -327,9 +331,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -337,192 +340,38 @@
     <xf numFmtId="2" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -761,9 +610,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -801,7 +650,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -907,7 +756,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1049,7 +898,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1072,7 +921,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -1105,11 +954,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1119,48 +967,27 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1168,160 +995,81 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="6">
         <v>0.24</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="6">
         <v>0.65</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="6">
         <v>0.24</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>19.792000000000002</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>50</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1329,145 +1077,65 @@
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.45175517503754498</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.88921153885340298</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>0.35289999999999999</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -1475,209 +1143,207 @@
         <v>21</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="23">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="20">
         <f t="shared" ref="H13:AB13" si="0">H18*$H$19</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="20">
         <f t="shared" si="0"/>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="20">
         <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="20">
         <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="20">
         <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="20">
         <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="20">
         <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="20">
         <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="20">
         <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="20">
         <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T13" s="23">
+      <c r="T13" s="20">
         <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U13" s="23">
+      <c r="U13" s="20">
         <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V13" s="23">
+      <c r="V13" s="20">
         <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="20">
         <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X13" s="23">
+      <c r="X13" s="20">
         <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y13" s="23">
+      <c r="Y13" s="20">
         <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z13" s="23">
+      <c r="Z13" s="20">
         <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA13" s="23">
+      <c r="AA13" s="20">
         <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB13" s="23">
+      <c r="AB13" s="20">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="22">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="19">
         <f>H16*$H$17</f>
         <v>-0.18</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <f t="shared" ref="I14:AB14" si="1">I16*$H$17</f>
         <v>-0.1638</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="19">
         <f t="shared" si="1"/>
         <v>-0.14616000000000001</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="19">
         <f t="shared" si="1"/>
         <v>-0.12672</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="19">
         <f t="shared" si="1"/>
         <v>-0.10668000000000001</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="19">
         <f t="shared" si="1"/>
         <v>-8.7719999999999992E-2</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="19">
         <f t="shared" si="1"/>
         <v>-7.0679999999999993E-2</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="19">
         <f t="shared" si="1"/>
         <v>-5.4719999999999998E-2</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="19">
         <f t="shared" si="1"/>
         <v>-3.8159999999999999E-2</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="19">
         <f t="shared" si="1"/>
         <v>-1.9800000000000002E-2</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="19">
         <f t="shared" si="1"/>
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="19">
         <f t="shared" si="1"/>
         <v>3.8159999999999999E-2</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="19">
         <f t="shared" si="1"/>
         <v>5.4719999999999998E-2</v>
       </c>
-      <c r="V14" s="22">
+      <c r="V14" s="19">
         <f t="shared" si="1"/>
         <v>7.0679999999999993E-2</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="19">
         <f t="shared" si="1"/>
         <v>8.7780000000000011E-2</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14" s="19">
         <f t="shared" si="1"/>
         <v>0.10668000000000001</v>
       </c>
-      <c r="Y14" s="22">
+      <c r="Y14" s="19">
         <f t="shared" si="1"/>
         <v>0.12672</v>
       </c>
-      <c r="Z14" s="22">
+      <c r="Z14" s="19">
         <f t="shared" si="1"/>
         <v>0.14616000000000001</v>
       </c>
-      <c r="AA14" s="22">
+      <c r="AA14" s="19">
         <f t="shared" si="1"/>
         <v>0.1638</v>
       </c>
-      <c r="AB14" s="22">
+      <c r="AB14" s="19">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="12">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="11">
         <v>-0.3</v>
       </c>
       <c r="I16">
@@ -1741,18 +1407,16 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17">
         <f>0.6</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="H18" s="12">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="H18" s="11">
         <v>-180</v>
       </c>
       <c r="I18">
@@ -1816,114 +1480,87 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="H30" s="16"/>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A25:B26 A4:B10 A13:B14">
-    <cfRule type="cellIs" dxfId="52" priority="6" operator="equal">
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B28">
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+  <conditionalFormatting sqref="A4:B14">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+  <conditionalFormatting sqref="A25:B28">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="49" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E10 E13:E14">
-    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B12">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11:E12">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1948,7 +1585,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -1981,11 +1618,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1995,52 +1631,33 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
       <c r="L4" t="s">
         <v>59</v>
       </c>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
       <c r="P4" t="s">
         <v>60</v>
       </c>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2048,176 +1665,109 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="6">
         <v>0.24</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>0.3</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="11">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>0.50249999999999995</v>
       </c>
-      <c r="O5"/>
-      <c r="P5" s="24">
+      <c r="P5" s="18">
         <f>L5-F5</f>
         <v>0.1462</v>
       </c>
-      <c r="Q5" s="24">
+      <c r="Q5" s="18">
         <f t="shared" ref="Q5:R5" si="0">M5-G5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="24">
+      <c r="R5" s="18">
         <f t="shared" si="0"/>
         <v>0.26249999999999996</v>
       </c>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="14"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U5" s="6"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="6"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="6">
         <v>0.65</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="6">
         <v>0.24</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>19.792000000000002</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>50</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -2225,148 +1775,68 @@
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.45175517503754498</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.88921153885340298</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>0.35289999999999999</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="31" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -2374,73 +1844,73 @@
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="22">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="19">
         <v>0.2</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-    </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="22">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="19">
         <v>0.4</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-    </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -2448,37 +1918,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <v>0.2</v>
       </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -2486,71 +1936,32 @@
         <v>11</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>0.2</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-    </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>0.4</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
       <c r="L17" t="s">
         <v>58</v>
       </c>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-    </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -2558,120 +1969,64 @@
         <v>10</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="21">
+      <c r="F18" s="18">
         <f>L18-P5</f>
         <v>0.13380000000000003</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="18">
         <f>M18-Q5</f>
         <v>0.2</v>
       </c>
-      <c r="H18" s="21">
+      <c r="H18" s="18">
         <f>N18-R5</f>
         <v>0.20535898384862206</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18" s="6">
+      <c r="L18">
         <v>0.28000000000000003</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18">
         <v>0.2</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18">
         <v>0.46785898384862201</v>
       </c>
-      <c r="O18"/>
       <c r="P18" t="s">
         <v>61</v>
       </c>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-    </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-    </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="H20" s="6">
+      <c r="H20">
         <v>0.05</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-    </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -2679,209 +2034,207 @@
         <v>21</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="23">
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="20">
         <f>H26*$H$27</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="20">
         <f t="shared" ref="I21:AB21" si="1">I26*$H$27</f>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="20">
         <f t="shared" si="1"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="20">
         <f t="shared" si="1"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="20">
         <f t="shared" si="1"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <f t="shared" si="1"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="20">
         <f t="shared" si="1"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="20">
         <f t="shared" si="1"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="20">
         <f t="shared" si="1"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="20">
         <f t="shared" si="1"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="20">
         <f t="shared" si="1"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="20">
         <f t="shared" si="1"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="20">
         <f t="shared" si="1"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V21" s="23">
+      <c r="V21" s="20">
         <f t="shared" si="1"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="20">
         <f t="shared" si="1"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X21" s="23">
+      <c r="X21" s="20">
         <f t="shared" si="1"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y21" s="20">
         <f t="shared" si="1"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z21" s="23">
+      <c r="Z21" s="20">
         <f t="shared" si="1"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA21" s="23">
+      <c r="AA21" s="20">
         <f t="shared" si="1"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB21" s="23">
+      <c r="AB21" s="20">
         <f t="shared" si="1"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="18" t="s">
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="22">
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="19">
         <f>H24*$H$17</f>
         <v>-0.12</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="19">
         <f t="shared" ref="I22:AB22" si="2">I24*$H$17</f>
         <v>-0.10920000000000002</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="19">
         <f t="shared" si="2"/>
         <v>-9.7440000000000013E-2</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="19">
         <f t="shared" si="2"/>
         <v>-8.448E-2</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="19">
         <f t="shared" si="2"/>
         <v>-7.1120000000000003E-2</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="19">
         <f t="shared" si="2"/>
         <v>-5.8480000000000004E-2</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="19">
         <f t="shared" si="2"/>
         <v>-4.7120000000000002E-2</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="19">
         <f t="shared" si="2"/>
         <v>-3.6480000000000005E-2</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="19">
         <f t="shared" si="2"/>
         <v>-2.5440000000000004E-2</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="19">
         <f t="shared" si="2"/>
         <v>-1.3200000000000002E-2</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="19">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="19">
         <f t="shared" si="2"/>
         <v>1.3200000000000002E-2</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="19">
         <f t="shared" si="2"/>
         <v>2.5440000000000004E-2</v>
       </c>
-      <c r="U22" s="22">
+      <c r="U22" s="19">
         <f t="shared" si="2"/>
         <v>3.6480000000000005E-2</v>
       </c>
-      <c r="V22" s="22">
+      <c r="V22" s="19">
         <f t="shared" si="2"/>
         <v>4.7120000000000002E-2</v>
       </c>
-      <c r="W22" s="22">
+      <c r="W22" s="19">
         <f t="shared" si="2"/>
         <v>5.852000000000001E-2</v>
       </c>
-      <c r="X22" s="22">
+      <c r="X22" s="19">
         <f t="shared" si="2"/>
         <v>7.1120000000000003E-2</v>
       </c>
-      <c r="Y22" s="22">
+      <c r="Y22" s="19">
         <f t="shared" si="2"/>
         <v>8.448E-2</v>
       </c>
-      <c r="Z22" s="22">
+      <c r="Z22" s="19">
         <f t="shared" si="2"/>
         <v>9.7440000000000013E-2</v>
       </c>
-      <c r="AA22" s="22">
+      <c r="AA22" s="19">
         <f t="shared" si="2"/>
         <v>0.10920000000000002</v>
       </c>
-      <c r="AB22" s="22">
+      <c r="AB22" s="19">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="12">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="11">
         <v>-0.3</v>
       </c>
       <c r="I24">
@@ -2945,21 +2298,19 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25">
         <f>0.6</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="12">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="11">
         <v>-180</v>
       </c>
       <c r="I26">
@@ -3023,86 +2374,64 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="H27" s="6">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="13"/>
+      <c r="H27">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-    </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="H31" s="16"/>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B31" s="13"/>
+      <c r="H31" s="14"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A26:B29 A4:B10 E5:E10 E13:E22 A13:B22">
-    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
+  <conditionalFormatting sqref="A30:A31">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+  <conditionalFormatting sqref="A4:B22">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="43" priority="7" operator="equal">
+  <conditionalFormatting sqref="A26:B29">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
-    <cfRule type="cellIs" dxfId="42" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+  <conditionalFormatting sqref="E5:E22">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3117,7 +2446,7 @@
   </sheetPr>
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
@@ -3127,7 +2456,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -3160,11 +2489,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3174,48 +2502,27 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3223,161 +2530,82 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="6">
         <v>0.24</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="6">
         <v>0.65</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="6">
         <v>0.24</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>19.792000000000002</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>50</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -3385,148 +2613,68 @@
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.45175517503754498</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.88921153885340298</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>0.35289999999999999</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="31" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -3534,73 +2682,73 @@
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="22">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="19">
         <v>0.2</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-    </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="22">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="19">
         <v>0.4</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-    </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -3608,37 +2756,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <v>0.2</v>
       </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -3646,69 +2774,29 @@
         <v>11</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>0.2</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-    </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>0.4</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-    </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -3716,111 +2804,52 @@
         <v>10</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>0.13380000000000003</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>0.2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>0.20535898384862206</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
       <c r="L18" t="s">
         <v>62</v>
       </c>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-    </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-    </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="H20" s="6">
+      <c r="H20">
         <v>0.05</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-    </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -3828,209 +2857,207 @@
         <v>21</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="23">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="20">
         <f>H26*$H$27</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="20">
         <f t="shared" ref="I21:AB21" si="0">I26*$H$27</f>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J21" s="23">
+      <c r="J21" s="20">
         <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="20">
         <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="20">
         <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="20">
         <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N21" s="23">
+      <c r="N21" s="20">
         <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O21" s="23">
+      <c r="O21" s="20">
         <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P21" s="23">
+      <c r="P21" s="20">
         <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q21" s="23">
+      <c r="Q21" s="20">
         <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R21" s="23">
+      <c r="R21" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S21" s="23">
+      <c r="S21" s="20">
         <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T21" s="23">
+      <c r="T21" s="20">
         <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="20">
         <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V21" s="23">
+      <c r="V21" s="20">
         <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W21" s="23">
+      <c r="W21" s="20">
         <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X21" s="23">
+      <c r="X21" s="20">
         <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y21" s="23">
+      <c r="Y21" s="20">
         <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z21" s="23">
+      <c r="Z21" s="20">
         <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA21" s="23">
+      <c r="AA21" s="20">
         <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB21" s="23">
+      <c r="AB21" s="20">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="22">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="19">
         <f>H24*$H$17</f>
         <v>-0.12</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="19">
         <f t="shared" ref="I22:AB22" si="1">I24*$H$17</f>
         <v>-0.10920000000000002</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="19">
         <f t="shared" si="1"/>
         <v>-9.7440000000000013E-2</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="19">
         <f t="shared" si="1"/>
         <v>-8.448E-2</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="19">
         <f t="shared" si="1"/>
         <v>-7.1120000000000003E-2</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M22" s="19">
         <f t="shared" si="1"/>
         <v>-5.8480000000000004E-2</v>
       </c>
-      <c r="N22" s="22">
+      <c r="N22" s="19">
         <f t="shared" si="1"/>
         <v>-4.7120000000000002E-2</v>
       </c>
-      <c r="O22" s="22">
+      <c r="O22" s="19">
         <f t="shared" si="1"/>
         <v>-3.6480000000000005E-2</v>
       </c>
-      <c r="P22" s="22">
+      <c r="P22" s="19">
         <f t="shared" si="1"/>
         <v>-2.5440000000000004E-2</v>
       </c>
-      <c r="Q22" s="22">
+      <c r="Q22" s="19">
         <f t="shared" si="1"/>
         <v>-1.3200000000000002E-2</v>
       </c>
-      <c r="R22" s="22">
+      <c r="R22" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S22" s="22">
+      <c r="S22" s="19">
         <f t="shared" si="1"/>
         <v>1.3200000000000002E-2</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="19">
         <f t="shared" si="1"/>
         <v>2.5440000000000004E-2</v>
       </c>
-      <c r="U22" s="22">
+      <c r="U22" s="19">
         <f t="shared" si="1"/>
         <v>3.6480000000000005E-2</v>
       </c>
-      <c r="V22" s="22">
+      <c r="V22" s="19">
         <f t="shared" si="1"/>
         <v>4.7120000000000002E-2</v>
       </c>
-      <c r="W22" s="22">
+      <c r="W22" s="19">
         <f t="shared" si="1"/>
         <v>5.852000000000001E-2</v>
       </c>
-      <c r="X22" s="22">
+      <c r="X22" s="19">
         <f t="shared" si="1"/>
         <v>7.1120000000000003E-2</v>
       </c>
-      <c r="Y22" s="22">
+      <c r="Y22" s="19">
         <f t="shared" si="1"/>
         <v>8.448E-2</v>
       </c>
-      <c r="Z22" s="22">
+      <c r="Z22" s="19">
         <f t="shared" si="1"/>
         <v>9.7440000000000013E-2</v>
       </c>
-      <c r="AA22" s="22">
+      <c r="AA22" s="19">
         <f t="shared" si="1"/>
         <v>0.10920000000000002</v>
       </c>
-      <c r="AB22" s="22">
+      <c r="AB22" s="19">
         <f t="shared" si="1"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="12">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="11">
         <v>-0.3</v>
       </c>
       <c r="I24">
@@ -4094,18 +3121,16 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="6">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25">
         <f>0.6</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="H26" s="12">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H26" s="11">
         <v>-180</v>
       </c>
       <c r="I26">
@@ -4169,114 +3194,87 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="6">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="H38" s="16"/>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="H38" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A33:B36 A4:B10 E5:E10 E13:E22 A13:B22">
-    <cfRule type="cellIs" dxfId="38" priority="7" operator="equal">
+  <conditionalFormatting sqref="A37:A38">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="37" priority="5" operator="equal">
+  <conditionalFormatting sqref="A4:B22">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="36" priority="6" operator="equal">
+  <conditionalFormatting sqref="A33:B36">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+  <conditionalFormatting sqref="E5:E22">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4301,7 +3299,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -4334,11 +3332,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4348,48 +3345,27 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -4397,161 +3373,82 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="6">
         <v>0.24</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="6">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="6">
         <v>0.65</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="6">
         <v>0.24</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>19.792000000000002</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>50</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -4559,148 +3456,68 @@
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0.45175517503754498</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.88921153885340298</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>0.35289999999999999</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="31" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -4708,73 +3525,73 @@
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="22">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="19">
         <v>0.2</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-    </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="22">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="19">
         <v>0.4</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-    </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
@@ -4782,37 +3599,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <v>0.2</v>
       </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>32</v>
       </c>
@@ -4820,69 +3617,29 @@
         <v>11</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>0.2</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-    </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>0.4</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-    </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
@@ -4890,111 +3647,52 @@
         <v>10</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>0.13380000000000003</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>0.2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>0.20535898384862206</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
       <c r="L18" t="s">
         <v>62</v>
       </c>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-    </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-    </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="H20" s="6">
+      <c r="H20">
         <v>0.05</v>
       </c>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-    </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -5002,114 +3700,114 @@
         <v>21</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="6" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11">
         <f>H25*$H$26</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I21" s="12">
+      <c r="I21" s="11">
         <f t="shared" ref="I21:AB21" si="0">I25*$H$26</f>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="11">
         <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M21" s="12">
+      <c r="M21" s="11">
         <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O21" s="12">
+      <c r="O21" s="11">
         <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P21" s="12">
+      <c r="P21" s="11">
         <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="11">
         <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R21" s="12">
+      <c r="R21" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S21" s="12">
+      <c r="S21" s="11">
         <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T21" s="12">
+      <c r="T21" s="11">
         <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U21" s="12">
+      <c r="U21" s="11">
         <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="11">
         <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W21" s="12">
+      <c r="W21" s="11">
         <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X21" s="12">
+      <c r="X21" s="11">
         <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Y21" s="11">
         <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="Z21" s="11">
         <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA21" s="12">
+      <c r="AA21" s="11">
         <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB21" s="12">
+      <c r="AB21" s="11">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
+      <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11">
         <v>-0.3</v>
       </c>
       <c r="I22">
@@ -5173,23 +3871,20 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="12">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="11">
         <v>-180</v>
       </c>
       <c r="I25">
@@ -5253,118 +3948,90 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="H26" s="6">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H26">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="H38" s="16"/>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="13"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="13"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="13"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="13"/>
+      <c r="H38" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A33:B36 A4:B10 E5:E10 E13:E22 A13:B22">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="equal">
+  <conditionalFormatting sqref="A37:A38">
+    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="cellIs" dxfId="30" priority="5" operator="equal">
+  <conditionalFormatting sqref="A4:B22">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+  <conditionalFormatting sqref="A33:B36">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12">
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+  <conditionalFormatting sqref="E5:E22">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5389,7 +4056,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -5422,11 +4089,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5436,48 +4102,27 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -5485,161 +4130,82 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="6">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="6">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="6">
         <v>0.439</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="6">
         <v>0.20499999999999999</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>19.792000000000002</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>50</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -5647,150 +4213,71 @@
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>-1.0213531220517</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>0.37675517503754502</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>0.92326153885340301</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
       <c r="K9" t="s">
         <v>49</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>0.35289999999999999</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="31" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -5798,209 +4285,207 @@
         <v>21</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="23">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="20">
         <f t="shared" ref="H13:AB13" si="0">H18*$H$19</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="20">
         <f t="shared" si="0"/>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J13" s="23">
+      <c r="J13" s="20">
         <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="20">
         <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="20">
         <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M13" s="23">
+      <c r="M13" s="20">
         <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N13" s="23">
+      <c r="N13" s="20">
         <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O13" s="23">
+      <c r="O13" s="20">
         <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P13" s="23">
+      <c r="P13" s="20">
         <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q13" s="23">
+      <c r="Q13" s="20">
         <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="23">
+      <c r="S13" s="20">
         <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T13" s="23">
+      <c r="T13" s="20">
         <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U13" s="23">
+      <c r="U13" s="20">
         <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V13" s="23">
+      <c r="V13" s="20">
         <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="20">
         <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X13" s="23">
+      <c r="X13" s="20">
         <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y13" s="23">
+      <c r="Y13" s="20">
         <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z13" s="23">
+      <c r="Z13" s="20">
         <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA13" s="23">
+      <c r="AA13" s="20">
         <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB13" s="23">
+      <c r="AB13" s="20">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="22">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="19">
         <f>H16*$H$17</f>
         <v>-0.18</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <f t="shared" ref="I14:AB14" si="1">I16*$H$17</f>
         <v>-0.1638</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="19">
         <f t="shared" si="1"/>
         <v>-0.14616000000000001</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="19">
         <f t="shared" si="1"/>
         <v>-0.12672</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="19">
         <f t="shared" si="1"/>
         <v>-0.10668000000000001</v>
       </c>
-      <c r="M14" s="22">
+      <c r="M14" s="19">
         <f t="shared" si="1"/>
         <v>-8.7719999999999992E-2</v>
       </c>
-      <c r="N14" s="22">
+      <c r="N14" s="19">
         <f t="shared" si="1"/>
         <v>-7.0679999999999993E-2</v>
       </c>
-      <c r="O14" s="22">
+      <c r="O14" s="19">
         <f t="shared" si="1"/>
         <v>-5.4719999999999998E-2</v>
       </c>
-      <c r="P14" s="22">
+      <c r="P14" s="19">
         <f t="shared" si="1"/>
         <v>-3.8159999999999999E-2</v>
       </c>
-      <c r="Q14" s="22">
+      <c r="Q14" s="19">
         <f t="shared" si="1"/>
         <v>-1.9800000000000002E-2</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S14" s="22">
+      <c r="S14" s="19">
         <f t="shared" si="1"/>
         <v>1.9800000000000002E-2</v>
       </c>
-      <c r="T14" s="22">
+      <c r="T14" s="19">
         <f t="shared" si="1"/>
         <v>3.8159999999999999E-2</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="19">
         <f t="shared" si="1"/>
         <v>5.4719999999999998E-2</v>
       </c>
-      <c r="V14" s="22">
+      <c r="V14" s="19">
         <f t="shared" si="1"/>
         <v>7.0679999999999993E-2</v>
       </c>
-      <c r="W14" s="22">
+      <c r="W14" s="19">
         <f t="shared" si="1"/>
         <v>8.7780000000000011E-2</v>
       </c>
-      <c r="X14" s="22">
+      <c r="X14" s="19">
         <f t="shared" si="1"/>
         <v>0.10668000000000001</v>
       </c>
-      <c r="Y14" s="22">
+      <c r="Y14" s="19">
         <f t="shared" si="1"/>
         <v>0.12672</v>
       </c>
-      <c r="Z14" s="22">
+      <c r="Z14" s="19">
         <f t="shared" si="1"/>
         <v>0.14616000000000001</v>
       </c>
-      <c r="AA14" s="22">
+      <c r="AA14" s="19">
         <f t="shared" si="1"/>
         <v>0.1638</v>
       </c>
-      <c r="AB14" s="22">
+      <c r="AB14" s="19">
         <f t="shared" si="1"/>
         <v>0.18</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="12">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="11">
         <v>-0.3</v>
       </c>
       <c r="I16">
@@ -6064,18 +4549,16 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6">
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17">
         <f>0.6</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="H18" s="12">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="H18" s="11">
         <v>-180</v>
       </c>
       <c r="I18">
@@ -6139,205 +4622,168 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="6">
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="6">
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21">
         <v>5</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>-1.0213531220517</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>0.37675517503754502</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="6">
         <v>0.92326153885340301</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="6">
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22">
         <v>4</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="18">
         <v>-0.91420000000000001</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="18">
         <v>0.3755</v>
       </c>
-      <c r="M22" s="21">
+      <c r="M22" s="18">
         <v>0.85660000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="6">
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23">
         <f>I21-I22</f>
         <v>1</v>
       </c>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-    </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="K24" s="7">
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="K24" s="6">
         <v>-1.2171799999999999</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <v>0.45050000000000001</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="6">
         <v>0.82255</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="K25" s="14">
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="K25" s="6">
         <f>K24+K21-K22</f>
         <v>-1.3243331220516996</v>
       </c>
-      <c r="L25" s="14">
+      <c r="L25" s="6">
         <f>L24+L21-L22</f>
         <v>0.45175517503754498</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="6">
         <f>M24+M21-M22</f>
         <v>0.88921153885340298</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="K27" s="12">
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="K27" s="11">
         <v>1.2710307999999999</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="11">
         <v>0.55801000000000001</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="11">
         <v>1.2685808000000001</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="K28" s="21">
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="K28" s="18">
         <f>K27+K21-K22</f>
         <v>1.1638776779483</v>
       </c>
-      <c r="L28" s="21">
+      <c r="L28" s="18">
         <f>L27+L21-L22</f>
         <v>0.55926517503754503</v>
       </c>
-      <c r="M28" s="21">
+      <c r="M28" s="18">
         <f>M27+M21-M22</f>
         <v>1.3352423388534029</v>
       </c>
     </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="H30" s="16"/>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A25:B26 A4:B10 A13:B14">
-    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B28">
-    <cfRule type="cellIs" dxfId="23" priority="9" operator="equal">
+  <conditionalFormatting sqref="A4:B14">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
+  <conditionalFormatting sqref="A25:B28">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E10 E13:E14">
-    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
-    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6362,7 +4808,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -6395,11 +4841,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6409,48 +4854,27 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6458,161 +4882,82 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="6">
         <v>0.2238</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="6">
         <v>0.33</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="6">
         <v>0.2238</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="6">
         <v>0.36</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="6">
         <v>0.33</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>19.792000000000002</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>50</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -6620,148 +4965,68 @@
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>1.18</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>0.55926517503754503</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>1.34</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>0.78888879999999995</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
         <v>1</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="31" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
@@ -6769,194 +5034,191 @@
         <v>21</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="22">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="19">
         <f>H17*$H$18</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="19">
         <f t="shared" ref="I13:AB13" si="0">I17*$H$18</f>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="19">
         <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="19">
         <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="19">
         <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M13" s="22">
+      <c r="M13" s="19">
         <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N13" s="22">
+      <c r="N13" s="19">
         <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O13" s="22">
+      <c r="O13" s="19">
         <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P13" s="22">
+      <c r="P13" s="19">
         <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q13" s="22">
+      <c r="Q13" s="19">
         <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S13" s="22">
+      <c r="S13" s="19">
         <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T13" s="22">
+      <c r="T13" s="19">
         <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U13" s="22">
+      <c r="U13" s="19">
         <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V13" s="22">
+      <c r="V13" s="19">
         <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W13" s="22">
+      <c r="W13" s="19">
         <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X13" s="22">
+      <c r="X13" s="19">
         <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y13" s="22">
+      <c r="Y13" s="19">
         <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z13" s="22">
+      <c r="Z13" s="19">
         <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA13" s="22">
+      <c r="AA13" s="19">
         <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB13" s="22">
+      <c r="AB13" s="19">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="22">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="19">
         <v>-0.3</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="21">
         <v>-0.27300000000000002</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="21">
         <v>-0.24360000000000001</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="21">
         <v>-0.2112</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="21">
         <v>-0.17780000000000001</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="21">
         <v>-0.1462</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="21">
         <v>-0.1178</v>
       </c>
-      <c r="O14" s="25">
+      <c r="O14" s="21">
         <v>-9.1200000000000003E-2</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="21">
         <v>-6.3600000000000004E-2</v>
       </c>
-      <c r="Q14" s="25">
+      <c r="Q14" s="21">
         <v>-3.3000000000000002E-2</v>
       </c>
-      <c r="R14" s="27">
+      <c r="R14" s="23">
         <v>0</v>
       </c>
-      <c r="S14" s="25">
+      <c r="S14" s="21">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="T14" s="25">
+      <c r="T14" s="21">
         <v>6.3600000000000004E-2</v>
       </c>
-      <c r="U14" s="25">
+      <c r="U14" s="21">
         <v>9.1200000000000003E-2</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="21">
         <v>0.1178</v>
       </c>
-      <c r="W14" s="25">
+      <c r="W14" s="21">
         <v>0.14630000000000001</v>
       </c>
-      <c r="X14" s="25">
+      <c r="X14" s="21">
         <v>0.17780000000000001</v>
       </c>
-      <c r="Y14" s="25">
+      <c r="Y14" s="21">
         <v>0.2112</v>
       </c>
-      <c r="Z14" s="25">
+      <c r="Z14" s="21">
         <v>0.24360000000000001</v>
       </c>
-      <c r="AA14" s="25">
+      <c r="AA14" s="21">
         <v>0.27300000000000002</v>
       </c>
-      <c r="AB14" s="25">
+      <c r="AB14" s="21">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="12">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="11">
         <v>-180</v>
       </c>
       <c r="I17">
@@ -7020,128 +5282,90 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="H18" s="6">
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="H18">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="H30" s="16"/>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="H30" s="14"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A25:B26 A4:B10 A13:B14">
-    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A27:B28">
-    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
+  <conditionalFormatting sqref="A4:B14">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+  <conditionalFormatting sqref="A25:B28">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E10 E13:E14">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+  <conditionalFormatting sqref="E5:E14">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7157,16 +5381,16 @@
   <dimension ref="A1:AB31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
@@ -7199,11 +5423,10 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7213,48 +5436,27 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-    </row>
-    <row r="5" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -7262,161 +5464,88 @@
         <v>10</v>
       </c>
       <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="6">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="6">
         <v>0.11927</v>
       </c>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="7"/>
-      <c r="O5"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-    </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="6"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="6">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="6">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="6">
         <v>0.11927</v>
       </c>
-      <c r="I6"/>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-    </row>
-    <row r="7" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12">
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
         <v>19.792000000000002</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-    </row>
-    <row r="8" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12">
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>50</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-    </row>
-    <row r="9" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -7424,148 +5553,68 @@
         <v>10</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>-0.46200000000000002</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.48907</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-    </row>
-    <row r="10" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="6" t="s">
+      <c r="D10" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
         <v>0.11558</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-    </row>
-    <row r="11" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="30">
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="26">
         <v>1</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-    </row>
-    <row r="12" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="31" t="s">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-    </row>
-    <row r="13" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>31</v>
       </c>
@@ -7573,73 +5622,73 @@
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
+      <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="29">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="25">
         <v>0.2</v>
       </c>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="25"/>
-      <c r="AB13" s="25"/>
-    </row>
-    <row r="14" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="22">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="19">
         <v>0.17230999999999999</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-    </row>
-    <row r="15" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -7647,37 +5696,17 @@
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
       <c r="E15" s="5"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="30">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="26">
         <v>0.2</v>
       </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-    </row>
-    <row r="16" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>28</v>
       </c>
@@ -7685,107 +5714,50 @@
         <v>10</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="5"/>
-      <c r="F16" s="21">
+      <c r="F16" s="18">
         <v>7.7869999999999995E-2</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="18">
         <v>0</v>
       </c>
-      <c r="H16" s="21">
+      <c r="H16" s="18">
         <v>0.10644000000000001</v>
       </c>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-    </row>
-    <row r="17" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="5"/>
-      <c r="H17" s="6">
+      <c r="H17">
         <f>0.01365</f>
         <v>1.3650000000000001E-2</v>
       </c>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-    </row>
-    <row r="18" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="5"/>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>0.05</v>
       </c>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-    </row>
-    <row r="19" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
@@ -7793,209 +5765,207 @@
         <v>21</v>
       </c>
       <c r="C19" s="5"/>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="23">
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="20">
         <f>H24*$H$25</f>
         <v>-3.1415700000000002</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="20">
         <f t="shared" ref="I19:AB19" si="0">I24*$H$25</f>
         <v>-2.8274130000000004</v>
       </c>
-      <c r="J19" s="23">
+      <c r="J19" s="20">
         <f t="shared" si="0"/>
         <v>-2.5132560000000002</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="20">
         <f t="shared" si="0"/>
         <v>-2.1990990000000004</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="20">
         <f t="shared" si="0"/>
         <v>-1.8849420000000003</v>
       </c>
-      <c r="M19" s="23">
+      <c r="M19" s="20">
         <f t="shared" si="0"/>
         <v>-1.5707850000000001</v>
       </c>
-      <c r="N19" s="23">
+      <c r="N19" s="20">
         <f t="shared" si="0"/>
         <v>-1.2566280000000001</v>
       </c>
-      <c r="O19" s="23">
+      <c r="O19" s="20">
         <f t="shared" si="0"/>
         <v>-0.94247100000000017</v>
       </c>
-      <c r="P19" s="23">
+      <c r="P19" s="20">
         <f t="shared" si="0"/>
         <v>-0.62831400000000004</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="20">
         <f t="shared" si="0"/>
         <v>-0.31415700000000002</v>
       </c>
-      <c r="R19" s="23">
+      <c r="R19" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S19" s="23">
+      <c r="S19" s="20">
         <f t="shared" si="0"/>
         <v>0.31415700000000002</v>
       </c>
-      <c r="T19" s="23">
+      <c r="T19" s="20">
         <f t="shared" si="0"/>
         <v>0.62831400000000004</v>
       </c>
-      <c r="U19" s="23">
+      <c r="U19" s="20">
         <f t="shared" si="0"/>
         <v>0.94247100000000017</v>
       </c>
-      <c r="V19" s="23">
+      <c r="V19" s="20">
         <f t="shared" si="0"/>
         <v>1.2566280000000001</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="20">
         <f t="shared" si="0"/>
         <v>1.5707850000000001</v>
       </c>
-      <c r="X19" s="23">
+      <c r="X19" s="20">
         <f t="shared" si="0"/>
         <v>1.8849420000000003</v>
       </c>
-      <c r="Y19" s="23">
+      <c r="Y19" s="20">
         <f t="shared" si="0"/>
         <v>2.1990990000000004</v>
       </c>
-      <c r="Z19" s="23">
+      <c r="Z19" s="20">
         <f t="shared" si="0"/>
         <v>2.5132560000000002</v>
       </c>
-      <c r="AA19" s="23">
+      <c r="AA19" s="20">
         <f t="shared" si="0"/>
         <v>2.8274130000000004</v>
       </c>
-      <c r="AB19" s="23">
+      <c r="AB19" s="20">
         <f t="shared" si="0"/>
         <v>3.1415700000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="18" t="s">
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="22">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="19">
         <f>H19*$H$26*180/3.14159</f>
         <v>-4.2893726928084193E-2</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="19">
         <f t="shared" ref="I20:AB20" si="1">I19*$H$26*180/3.14159</f>
         <v>-3.8604354235275778E-2</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="19">
         <f t="shared" si="1"/>
         <v>-3.431498154246735E-2</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="19">
         <f t="shared" si="1"/>
         <v>-3.0025608849658939E-2</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="19">
         <f t="shared" si="1"/>
         <v>-2.5736236156850518E-2</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="19">
         <f t="shared" si="1"/>
         <v>-2.1446863464042096E-2</v>
       </c>
-      <c r="N20" s="22">
+      <c r="N20" s="19">
         <f t="shared" si="1"/>
         <v>-1.7157490771233675E-2</v>
       </c>
-      <c r="O20" s="22">
+      <c r="O20" s="19">
         <f t="shared" si="1"/>
         <v>-1.2868118078425259E-2</v>
       </c>
-      <c r="P20" s="22">
+      <c r="P20" s="19">
         <f t="shared" si="1"/>
         <v>-8.5787453856168375E-3</v>
       </c>
-      <c r="Q20" s="22">
+      <c r="Q20" s="19">
         <f t="shared" si="1"/>
         <v>-4.2893726928084188E-3</v>
       </c>
-      <c r="R20" s="22">
+      <c r="R20" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S20" s="22">
+      <c r="S20" s="19">
         <f t="shared" si="1"/>
         <v>4.2893726928084188E-3</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="19">
         <f t="shared" si="1"/>
         <v>8.5787453856168375E-3</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="19">
         <f t="shared" si="1"/>
         <v>1.2868118078425259E-2</v>
       </c>
-      <c r="V20" s="22">
+      <c r="V20" s="19">
         <f t="shared" si="1"/>
         <v>1.7157490771233675E-2</v>
       </c>
-      <c r="W20" s="22">
+      <c r="W20" s="19">
         <f t="shared" si="1"/>
         <v>2.1446863464042096E-2</v>
       </c>
-      <c r="X20" s="22">
+      <c r="X20" s="19">
         <f t="shared" si="1"/>
         <v>2.5736236156850518E-2</v>
       </c>
-      <c r="Y20" s="22">
+      <c r="Y20" s="19">
         <f t="shared" si="1"/>
         <v>3.0025608849658939E-2</v>
       </c>
-      <c r="Z20" s="22">
+      <c r="Z20" s="19">
         <f t="shared" si="1"/>
         <v>3.431498154246735E-2</v>
       </c>
-      <c r="AA20" s="22">
+      <c r="AA20" s="19">
         <f t="shared" si="1"/>
         <v>3.8604354235275778E-2</v>
       </c>
-      <c r="AB20" s="22">
+      <c r="AB20" s="19">
         <f t="shared" si="1"/>
         <v>4.2893726928084193E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="12">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="11">
         <v>-0.3</v>
       </c>
       <c r="I22">
@@ -8059,21 +6029,19 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="6">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23">
         <f>0.6</f>
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="12">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="11">
         <v>-180</v>
       </c>
       <c r="I24">
@@ -8137,92 +6105,879 @@
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="H25" s="6">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="H25">
         <f>3.14157/180</f>
         <v>1.7453166666666669E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="H26" s="6">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H26">
         <f>0.0002383</f>
         <v>2.3829999999999999E-4</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="J26" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:28" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="H29" s="16"/>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="H29" s="14"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A24:B27 A4:B10 E5:E10 E13:E20 A13:B20">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+  <conditionalFormatting sqref="A28:A29">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+  <conditionalFormatting sqref="A4:B20">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+  <conditionalFormatting sqref="A24:B27">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A11:B11">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="E5:E20">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E2386-034C-449F-A0C5-FEBB336109CA}">
+  <sheetPr>
+    <tabColor rgb="FFFF9999"/>
+  </sheetPr>
+  <dimension ref="A1:AB31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="S33" sqref="S33"/>
+      <selection pane="topRight" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="28" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.11927</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="6"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6">
+        <v>9.0499999999999997E-2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.11927</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>19.792000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="25">
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="21"/>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="19">
+        <v>0.33</v>
+      </c>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+      <c r="AB14" s="21"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="18">
+        <v>7.7869999999999995E-2</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.10644000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="5"/>
+      <c r="H17">
+        <f>0.01365</f>
+        <v>1.3650000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="H18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="20">
+        <f>H24*$H$25</f>
+        <v>-3.1415700000000002</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" ref="I19:AB19" si="0">I24*$H$25</f>
+        <v>-2.8274130000000004</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="0"/>
+        <v>-2.5132560000000002</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="0"/>
+        <v>-2.1990990000000004</v>
+      </c>
+      <c r="L19" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.8849420000000003</v>
+      </c>
+      <c r="M19" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.5707850000000001</v>
+      </c>
+      <c r="N19" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.2566280000000001</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.94247100000000017</v>
+      </c>
+      <c r="P19" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.62831400000000004</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.31415700000000002</v>
+      </c>
+      <c r="R19" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
+        <f t="shared" si="0"/>
+        <v>0.31415700000000002</v>
+      </c>
+      <c r="T19" s="20">
+        <f t="shared" si="0"/>
+        <v>0.62831400000000004</v>
+      </c>
+      <c r="U19" s="20">
+        <f t="shared" si="0"/>
+        <v>0.94247100000000017</v>
+      </c>
+      <c r="V19" s="20">
+        <f t="shared" si="0"/>
+        <v>1.2566280000000001</v>
+      </c>
+      <c r="W19" s="20">
+        <f t="shared" si="0"/>
+        <v>1.5707850000000001</v>
+      </c>
+      <c r="X19" s="20">
+        <f t="shared" si="0"/>
+        <v>1.8849420000000003</v>
+      </c>
+      <c r="Y19" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1990990000000004</v>
+      </c>
+      <c r="Z19" s="20">
+        <f t="shared" si="0"/>
+        <v>2.5132560000000002</v>
+      </c>
+      <c r="AA19" s="20">
+        <f t="shared" si="0"/>
+        <v>2.8274130000000004</v>
+      </c>
+      <c r="AB19" s="20">
+        <f t="shared" si="0"/>
+        <v>3.1415700000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="19">
+        <f>H19*$H$26*180/3.14159</f>
+        <v>-4.2893726928084193E-2</v>
+      </c>
+      <c r="I20" s="19">
+        <f t="shared" ref="I20:AB20" si="1">I19*$H$26*180/3.14159</f>
+        <v>-3.8604354235275778E-2</v>
+      </c>
+      <c r="J20" s="19">
+        <f t="shared" si="1"/>
+        <v>-3.431498154246735E-2</v>
+      </c>
+      <c r="K20" s="19">
+        <f t="shared" si="1"/>
+        <v>-3.0025608849658939E-2</v>
+      </c>
+      <c r="L20" s="19">
+        <f t="shared" si="1"/>
+        <v>-2.5736236156850518E-2</v>
+      </c>
+      <c r="M20" s="19">
+        <f t="shared" si="1"/>
+        <v>-2.1446863464042096E-2</v>
+      </c>
+      <c r="N20" s="19">
+        <f t="shared" si="1"/>
+        <v>-1.7157490771233675E-2</v>
+      </c>
+      <c r="O20" s="19">
+        <f t="shared" si="1"/>
+        <v>-1.2868118078425259E-2</v>
+      </c>
+      <c r="P20" s="19">
+        <f t="shared" si="1"/>
+        <v>-8.5787453856168375E-3</v>
+      </c>
+      <c r="Q20" s="19">
+        <f t="shared" si="1"/>
+        <v>-4.2893726928084188E-3</v>
+      </c>
+      <c r="R20" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="19">
+        <f t="shared" si="1"/>
+        <v>4.2893726928084188E-3</v>
+      </c>
+      <c r="T20" s="19">
+        <f t="shared" si="1"/>
+        <v>8.5787453856168375E-3</v>
+      </c>
+      <c r="U20" s="19">
+        <f t="shared" si="1"/>
+        <v>1.2868118078425259E-2</v>
+      </c>
+      <c r="V20" s="19">
+        <f t="shared" si="1"/>
+        <v>1.7157490771233675E-2</v>
+      </c>
+      <c r="W20" s="19">
+        <f t="shared" si="1"/>
+        <v>2.1446863464042096E-2</v>
+      </c>
+      <c r="X20" s="19">
+        <f t="shared" si="1"/>
+        <v>2.5736236156850518E-2</v>
+      </c>
+      <c r="Y20" s="19">
+        <f t="shared" si="1"/>
+        <v>3.0025608849658939E-2</v>
+      </c>
+      <c r="Z20" s="19">
+        <f t="shared" si="1"/>
+        <v>3.431498154246735E-2</v>
+      </c>
+      <c r="AA20" s="19">
+        <f t="shared" si="1"/>
+        <v>3.8604354235275778E-2</v>
+      </c>
+      <c r="AB20" s="19">
+        <f t="shared" si="1"/>
+        <v>4.2893726928084193E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="11">
+        <v>-0.3</v>
+      </c>
+      <c r="I22">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="J22">
+        <v>-0.24360000000000001</v>
+      </c>
+      <c r="K22">
+        <v>-0.2112</v>
+      </c>
+      <c r="L22">
+        <v>-0.17780000000000001</v>
+      </c>
+      <c r="M22">
+        <v>-0.1462</v>
+      </c>
+      <c r="N22">
+        <v>-0.1178</v>
+      </c>
+      <c r="O22">
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="P22">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+      <c r="Q22">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T22">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="U22">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="V22">
+        <v>0.1178</v>
+      </c>
+      <c r="W22">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="X22">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="Y22">
+        <v>0.2112</v>
+      </c>
+      <c r="Z22">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="AA22">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AB22">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="13"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="11">
+        <v>-180</v>
+      </c>
+      <c r="I24">
+        <v>-162</v>
+      </c>
+      <c r="J24">
+        <v>-144</v>
+      </c>
+      <c r="K24">
+        <v>-126</v>
+      </c>
+      <c r="L24">
+        <v>-108</v>
+      </c>
+      <c r="M24">
+        <v>-90</v>
+      </c>
+      <c r="N24">
+        <v>-72</v>
+      </c>
+      <c r="O24">
+        <v>-54</v>
+      </c>
+      <c r="P24">
+        <v>-36</v>
+      </c>
+      <c r="Q24">
+        <v>-18</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>18</v>
+      </c>
+      <c r="T24">
+        <v>36</v>
+      </c>
+      <c r="U24">
+        <v>54</v>
+      </c>
+      <c r="V24">
+        <v>72</v>
+      </c>
+      <c r="W24">
+        <v>90</v>
+      </c>
+      <c r="X24">
+        <v>108</v>
+      </c>
+      <c r="Y24">
+        <v>126</v>
+      </c>
+      <c r="Z24">
+        <v>144</v>
+      </c>
+      <c r="AA24">
+        <v>162</v>
+      </c>
+      <c r="AB24">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="H25">
+        <f>3.14157/180</f>
+        <v>1.7453166666666669E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f>0.0002383</f>
+        <v>2.3829999999999999E-4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="13"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E31" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A28:A29">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:B12">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="A4:B20">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
+  <conditionalFormatting sqref="A24:B27">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack_Column.xlsx
+++ b/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack_Column.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\veh-tpl\Libraries\Vehicle\Steer\Rack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Steer\Rack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D54D6A-EE2E-4EBB-BF21-FC6EF9429BCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19370CC5-1CE2-4030-8615-9EB7EB6FF7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="25665" windowHeight="11295" tabRatio="869" firstSheet="1" activeTab="7" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="570" yWindow="645" windowWidth="25575" windowHeight="13875" tabRatio="869" firstSheet="1" activeTab="7" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="RWheel_HambaLG_f" sheetId="8" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="62">
   <si>
     <t>Units</t>
   </si>
@@ -83,12 +83,6 @@
   </si>
   <si>
     <t>sOutboard</t>
-  </si>
-  <si>
-    <t>HPInboardTrackRod</t>
-  </si>
-  <si>
-    <t>Also in Linkage</t>
   </si>
   <si>
     <t>kg</t>
@@ -169,9 +163,6 @@
     <t>WheelDrivenRack</t>
   </si>
   <si>
-    <t>TrackRod.sInboard</t>
-  </si>
-  <si>
     <t>RackWheel_Sedan_Hamba_f</t>
   </si>
   <si>
@@ -233,6 +224,9 @@
   </si>
   <si>
     <t>WheelDrivenRack1UJoint_Ch2_Achilles</t>
+  </si>
+  <si>
+    <t>Must  be consistent with linkage trackrod inboard point</t>
   </si>
 </sst>
 </file>
@@ -318,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -367,6 +361,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,6 +596,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -912,11 +915,11 @@
   <dimension ref="A1:AB30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S33" sqref="S33"/>
       <selection pane="topRight" activeCell="S33" sqref="S33"/>
       <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,7 +973,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -984,7 +987,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -998,7 +1001,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -1020,20 +1023,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="31">
         <v>0.65</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="31">
         <v>0.24</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -1043,10 +1046,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -1057,12 +1060,13 @@
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -1071,7 +1075,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1080,6 +1084,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
+      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
@@ -1093,12 +1098,13 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -1112,10 +1118,10 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1129,25 +1135,26 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1239,14 +1246,14 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
-        <v>25</v>
+      <c r="E14" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1559,7 +1566,7 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E14">
+  <conditionalFormatting sqref="E5 E7:E14">
     <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -1576,11 +1583,11 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="S33" sqref="S33"/>
-      <selection pane="topRight" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="P18" sqref="P18"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1634,7 +1641,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -1648,13 +1655,13 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -1668,7 +1675,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -1714,20 +1721,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="31">
         <v>0.65</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="31">
         <v>0.24</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -1740,10 +1747,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -1754,13 +1761,13 @@
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -1769,7 +1776,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1778,7 +1785,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
@@ -1792,13 +1799,13 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -1812,10 +1819,10 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1829,25 +1836,25 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="19">
@@ -1877,13 +1884,13 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="19">
@@ -1912,16 +1919,16 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="30"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
@@ -1930,16 +1937,16 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="30"/>
       <c r="H16" s="11">
         <v>0.2</v>
       </c>
@@ -1947,23 +1954,23 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="30"/>
       <c r="H17">
         <v>0.4</v>
       </c>
       <c r="L17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1972,7 +1979,7 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="18">
         <f>L18-P5</f>
         <v>0.13380000000000003</v>
@@ -1995,19 +2002,19 @@
         <v>0.46785898384862201</v>
       </c>
       <c r="P18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="30"/>
       <c r="H19">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2019,26 +2026,26 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E20" s="30"/>
       <c r="H20">
         <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2130,14 +2137,14 @@
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -2396,7 +2403,7 @@
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E32" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -2406,7 +2413,7 @@
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -2430,7 +2437,7 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E22">
+  <conditionalFormatting sqref="E5 E7:E22">
     <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -2448,10 +2455,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="S33" sqref="S33"/>
-      <selection pane="topRight" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2505,7 +2512,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -2519,7 +2526,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -2533,7 +2540,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -2555,20 +2562,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="31">
         <v>0.65</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="31">
         <v>0.24</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -2578,10 +2585,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -2592,13 +2599,13 @@
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -2607,7 +2614,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -2616,7 +2623,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
@@ -2630,13 +2637,13 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -2650,10 +2657,10 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -2667,25 +2674,25 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="19">
@@ -2715,13 +2722,13 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="19">
@@ -2750,16 +2757,16 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="30"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
@@ -2768,16 +2775,16 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="30"/>
       <c r="H16" s="11">
         <v>0.2</v>
       </c>
@@ -2785,20 +2792,20 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="30"/>
       <c r="H17">
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2807,7 +2814,7 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="30"/>
       <c r="F18">
         <v>0.13380000000000003</v>
       </c>
@@ -2818,19 +2825,19 @@
         <v>0.20535898384862206</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="30"/>
       <c r="H19">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2842,26 +2849,26 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E20" s="30"/>
       <c r="H20">
         <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -2953,14 +2960,14 @@
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>25</v>
+      <c r="E22" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -3273,7 +3280,7 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E22">
+  <conditionalFormatting sqref="E5 E7:E22">
     <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -3291,10 +3298,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="S33" sqref="S33"/>
-      <selection pane="topRight" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3348,7 +3355,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -3362,7 +3369,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -3376,7 +3383,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -3398,20 +3405,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="31">
         <v>0.65</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="31">
         <v>0.24</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -3421,10 +3428,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -3435,13 +3442,13 @@
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -3450,7 +3457,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -3459,7 +3466,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
@@ -3473,13 +3480,13 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -3493,10 +3500,10 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -3510,25 +3517,25 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="19">
@@ -3558,14 +3565,14 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="11"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="11"/>
       <c r="H14" s="19">
         <v>0.4</v>
@@ -3593,17 +3600,17 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="30"/>
+      <c r="F15" s="28"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
         <v>0.2</v>
@@ -3611,16 +3618,17 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
       <c r="H16" s="11">
         <v>0.2</v>
       </c>
@@ -3628,20 +3636,21 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
       <c r="H17">
         <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -3650,8 +3659,8 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18">
+      <c r="E18" s="30"/>
+      <c r="F18" s="30">
         <v>0.13380000000000003</v>
       </c>
       <c r="G18">
@@ -3661,19 +3670,20 @@
         <v>0.20535898384862206</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
       <c r="H19">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -3685,28 +3695,29 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
       <c r="H20">
         <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="28"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11">
         <f>H25*$H$26</f>
@@ -3796,16 +3807,16 @@
     <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="11"/>
+      <c r="E22" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="28"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11">
         <v>-0.3</v>
@@ -4030,7 +4041,7 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E22">
+  <conditionalFormatting sqref="E5 E7:E22">
     <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -4048,10 +4059,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="S33" sqref="S33"/>
-      <selection pane="topRight" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
+      <selection activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4105,7 +4116,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -4119,7 +4130,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -4133,7 +4144,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -4155,20 +4166,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="31">
         <v>0.439</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="31">
         <v>0.20499999999999999</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -4178,10 +4189,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -4192,13 +4203,13 @@
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -4207,7 +4218,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4216,7 +4227,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="11">
         <v>-1.0213531220517</v>
       </c>
@@ -4227,19 +4238,19 @@
         <v>0.92326153885340301</v>
       </c>
       <c r="K9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -4253,10 +4264,10 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -4270,26 +4281,26 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -4381,14 +4392,14 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>25</v>
+      <c r="E14" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -4652,7 +4663,7 @@
         <v>0.92326153885340301</v>
       </c>
       <c r="N21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.25">
@@ -4697,7 +4708,7 @@
         <v>0.82255</v>
       </c>
       <c r="N24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
@@ -4738,7 +4749,7 @@
         <v>1.2685808000000001</v>
       </c>
       <c r="N27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
@@ -4782,7 +4793,7 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E14">
+  <conditionalFormatting sqref="E5 E7:E14">
     <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -4800,10 +4811,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="S33" sqref="S33"/>
-      <selection pane="topRight" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4857,7 +4868,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -4871,7 +4882,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -4885,7 +4896,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -4907,20 +4918,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31">
         <v>0.2238</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="31">
         <v>0.36</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="31">
         <v>0.33</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -4930,10 +4941,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -4944,13 +4955,13 @@
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -4959,7 +4970,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -4968,7 +4979,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="11">
         <v>1.18</v>
       </c>
@@ -4982,13 +4993,13 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -5002,10 +5013,10 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5019,26 +5030,26 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -5130,14 +5141,14 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>25</v>
+      <c r="E14" s="30" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -5364,7 +5375,7 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E14">
+  <conditionalFormatting sqref="E5 E7:E14">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -5382,10 +5393,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="S33" sqref="S33"/>
-      <selection pane="topRight" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="S29" sqref="S29"/>
+      <selection activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5439,7 +5450,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -5453,7 +5464,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -5467,7 +5478,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -5495,20 +5506,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="31">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="31">
         <v>0.11927</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -5518,10 +5529,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -5532,13 +5543,13 @@
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -5547,7 +5558,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -5556,7 +5567,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-0.46200000000000002</v>
       </c>
@@ -5570,13 +5581,13 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -5590,10 +5601,10 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -5607,25 +5618,25 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="25">
@@ -5655,13 +5666,13 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="19">
@@ -5690,16 +5701,16 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="30"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="26">
@@ -5708,7 +5719,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5717,7 +5728,7 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="18">
         <v>7.7869999999999995E-2</v>
       </c>
@@ -5731,13 +5742,13 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="30"/>
       <c r="H17">
         <f>0.01365</f>
         <v>1.3650000000000001E-2</v>
@@ -5750,26 +5761,26 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E18" s="30"/>
       <c r="H18">
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -5861,14 +5872,14 @@
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -6118,7 +6129,7 @@
         <v>2.3829999999999999E-4</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -6136,7 +6147,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E30" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -6146,7 +6157,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E31" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -6170,7 +6181,7 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E20">
+  <conditionalFormatting sqref="E5 E7:E20">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -6188,10 +6199,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="S33" sqref="S33"/>
-      <selection pane="topRight" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection activeCell="F21" sqref="F21"/>
+      <selection pane="topRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6246,7 +6257,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -6260,7 +6271,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
@@ -6274,7 +6285,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="30" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -6302,20 +6313,20 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="E6" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="31">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="31">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="31">
         <v>0.11927</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -6325,10 +6336,10 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -6339,13 +6350,13 @@
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -6354,7 +6365,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -6363,7 +6374,7 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-0.56000000000000005</v>
       </c>
@@ -6377,13 +6388,13 @@
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -6397,14 +6408,14 @@
       </c>
       <c r="C11" s="5"/>
       <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>15</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="26">
+      <c r="H11" s="28">
         <v>1</v>
       </c>
     </row>
@@ -6414,28 +6425,28 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E13" s="30"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="25">
+      <c r="H13" s="29">
         <v>0.2</v>
       </c>
       <c r="I13" s="21"/>
@@ -6462,13 +6473,13 @@
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="30"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="19">
@@ -6497,25 +6508,25 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="30"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="26">
+      <c r="H15" s="28">
         <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6524,7 +6535,7 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="30"/>
       <c r="F16" s="18">
         <v>7.7869999999999995E-2</v>
       </c>
@@ -6538,13 +6549,13 @@
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="30"/>
       <c r="H17">
         <f>0.01365</f>
         <v>1.3650000000000001E-2</v>
@@ -6557,26 +6568,26 @@
       </c>
       <c r="C18" s="5"/>
       <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="E18" s="30"/>
       <c r="H18">
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16"/>
@@ -6668,14 +6679,14 @@
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -6925,7 +6936,7 @@
         <v>2.3829999999999999E-4</v>
       </c>
       <c r="J26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.25">
@@ -6943,7 +6954,7 @@
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E30" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -6953,7 +6964,7 @@
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E31" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -6977,7 +6988,7 @@
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E20">
+  <conditionalFormatting sqref="E5 E7:E20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>

--- a/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack_Column.xlsx
+++ b/Libraries/Vehicle/Steer/Rack/sm_car_data_Steer_Rack_Column.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Steer\Rack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19370CC5-1CE2-4030-8615-9EB7EB6FF7E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FC55F9-7522-443D-8B1A-568F6E5F9CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="645" windowWidth="25575" windowHeight="13875" tabRatio="869" firstSheet="1" activeTab="7" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="19290" windowHeight="12255" tabRatio="869" activeTab="1" xr2:uid="{3FA59F9D-D9D3-4E28-B3CE-9BFC80E89258}"/>
   </bookViews>
   <sheets>
     <sheet name="RWheel_HambaLG_f" sheetId="8" r:id="rId1"/>
-    <sheet name="WDrivenRack_HambaLG_f" sheetId="9" r:id="rId2"/>
-    <sheet name="RDrivenShafts_HambaLG" sheetId="10" r:id="rId3"/>
-    <sheet name="RStaticShafts_HambaLG" sheetId="12" r:id="rId4"/>
-    <sheet name="RWheel_Hamba_f" sheetId="7" r:id="rId5"/>
-    <sheet name="RWheel_Bus_Makhulu_f" sheetId="6" r:id="rId6"/>
-    <sheet name="WDrivenRack_1UJ_Achilles" sheetId="13" r:id="rId7"/>
-    <sheet name="WDrivenRack_1UJ_Ch2_Achilles" sheetId="14" r:id="rId8"/>
+    <sheet name="RWheel_SUVLandy_f" sheetId="15" r:id="rId2"/>
+    <sheet name="WDrivenRack_HambaLG_f" sheetId="9" r:id="rId3"/>
+    <sheet name="RDrivenShafts_HambaLG" sheetId="10" r:id="rId4"/>
+    <sheet name="RStaticShafts_HambaLG" sheetId="12" r:id="rId5"/>
+    <sheet name="RWheel_Hamba_f" sheetId="7" r:id="rId6"/>
+    <sheet name="RWheel_Bus_Makhulu_f" sheetId="6" r:id="rId7"/>
+    <sheet name="WDrivenRack_1UJ_Achilles" sheetId="13" r:id="rId8"/>
+    <sheet name="WDrivenRack_1UJ_Ch2_Achilles" sheetId="14" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="63">
   <si>
     <t>Units</t>
   </si>
@@ -228,6 +229,9 @@
   <si>
     <t>Must  be consistent with linkage trackrod inboard point</t>
   </si>
+  <si>
+    <t>RackWheel_SUV_Landy_f</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -361,15 +365,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1001,7 +1030,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -1023,16 +1052,16 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>0.65</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <v>0.24</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -1048,7 +1077,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="11"/>
@@ -1066,7 +1095,6 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -1084,7 +1112,6 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
@@ -1104,7 +1131,6 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -1120,7 +1146,7 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="11"/>
@@ -1135,7 +1161,6 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="s">
@@ -1153,7 +1178,7 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
@@ -1252,7 +1277,7 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="11"/>
@@ -1552,22 +1577,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B14">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B28">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E14">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1576,6 +1601,671 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D504CF-9714-4F4E-B2B0-8EB0A4CE2B41}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AB30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="S33" sqref="S33"/>
+      <selection pane="topRight" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomLeft" activeCell="S33" sqref="S33"/>
+      <selection pane="bottomRight" activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="28" width="7.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="28">
+        <v>0.15379999999999999</v>
+      </c>
+      <c r="G6" s="28">
+        <f>0.65-0.25</f>
+        <v>0.4</v>
+      </c>
+      <c r="H6" s="28">
+        <v>0.24</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11">
+        <v>19.792000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="18">
+        <v>-1.0213531220517</v>
+      </c>
+      <c r="G9" s="18">
+        <v>-0.37675517503754502</v>
+      </c>
+      <c r="H9" s="18">
+        <v>1.2232615388534001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <v>0.35289999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="20">
+        <f t="shared" ref="H13:AB13" si="0">H18*$H$19</f>
+        <v>-3.1415700000000002</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="0"/>
+        <v>-2.8274130000000004</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="0"/>
+        <v>-2.5132560000000002</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="0"/>
+        <v>-2.1990990000000004</v>
+      </c>
+      <c r="L13" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.8849420000000003</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.5707850000000001</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" si="0"/>
+        <v>-1.2566280000000001</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.94247100000000017</v>
+      </c>
+      <c r="P13" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.62831400000000004</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.31415700000000002</v>
+      </c>
+      <c r="R13" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="0"/>
+        <v>0.31415700000000002</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="0"/>
+        <v>0.62831400000000004</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="0"/>
+        <v>0.94247100000000017</v>
+      </c>
+      <c r="V13" s="20">
+        <f t="shared" si="0"/>
+        <v>1.2566280000000001</v>
+      </c>
+      <c r="W13" s="20">
+        <f t="shared" si="0"/>
+        <v>1.5707850000000001</v>
+      </c>
+      <c r="X13" s="20">
+        <f t="shared" si="0"/>
+        <v>1.8849420000000003</v>
+      </c>
+      <c r="Y13" s="20">
+        <f t="shared" si="0"/>
+        <v>2.1990990000000004</v>
+      </c>
+      <c r="Z13" s="20">
+        <f t="shared" si="0"/>
+        <v>2.5132560000000002</v>
+      </c>
+      <c r="AA13" s="20">
+        <f t="shared" si="0"/>
+        <v>2.8274130000000004</v>
+      </c>
+      <c r="AB13" s="20">
+        <f t="shared" si="0"/>
+        <v>3.1415700000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="19">
+        <f>H16*$H$17</f>
+        <v>-0.18</v>
+      </c>
+      <c r="I14" s="19">
+        <f t="shared" ref="I14:AB14" si="1">I16*$H$17</f>
+        <v>-0.1638</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.14616000000000001</v>
+      </c>
+      <c r="K14" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.12672</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.10668000000000001</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" si="1"/>
+        <v>-8.7719999999999992E-2</v>
+      </c>
+      <c r="N14" s="19">
+        <f t="shared" si="1"/>
+        <v>-7.0679999999999993E-2</v>
+      </c>
+      <c r="O14" s="19">
+        <f t="shared" si="1"/>
+        <v>-5.4719999999999998E-2</v>
+      </c>
+      <c r="P14" s="19">
+        <f t="shared" si="1"/>
+        <v>-3.8159999999999999E-2</v>
+      </c>
+      <c r="Q14" s="19">
+        <f t="shared" si="1"/>
+        <v>-1.9800000000000002E-2</v>
+      </c>
+      <c r="R14" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="19">
+        <f t="shared" si="1"/>
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="T14" s="19">
+        <f t="shared" si="1"/>
+        <v>3.8159999999999999E-2</v>
+      </c>
+      <c r="U14" s="19">
+        <f t="shared" si="1"/>
+        <v>5.4719999999999998E-2</v>
+      </c>
+      <c r="V14" s="19">
+        <f t="shared" si="1"/>
+        <v>7.0679999999999993E-2</v>
+      </c>
+      <c r="W14" s="19">
+        <f t="shared" si="1"/>
+        <v>8.7780000000000011E-2</v>
+      </c>
+      <c r="X14" s="19">
+        <f t="shared" si="1"/>
+        <v>0.10668000000000001</v>
+      </c>
+      <c r="Y14" s="19">
+        <f t="shared" si="1"/>
+        <v>0.12672</v>
+      </c>
+      <c r="Z14" s="19">
+        <f t="shared" si="1"/>
+        <v>0.14616000000000001</v>
+      </c>
+      <c r="AA14" s="19">
+        <f t="shared" si="1"/>
+        <v>0.1638</v>
+      </c>
+      <c r="AB14" s="19">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="11">
+        <v>-0.3</v>
+      </c>
+      <c r="I16">
+        <v>-0.27300000000000002</v>
+      </c>
+      <c r="J16">
+        <v>-0.24360000000000001</v>
+      </c>
+      <c r="K16">
+        <v>-0.2112</v>
+      </c>
+      <c r="L16">
+        <v>-0.17780000000000001</v>
+      </c>
+      <c r="M16">
+        <v>-0.1462</v>
+      </c>
+      <c r="N16">
+        <v>-0.1178</v>
+      </c>
+      <c r="O16">
+        <v>-9.1200000000000003E-2</v>
+      </c>
+      <c r="P16">
+        <v>-6.3600000000000004E-2</v>
+      </c>
+      <c r="Q16">
+        <v>-3.3000000000000002E-2</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="T16">
+        <v>6.3600000000000004E-2</v>
+      </c>
+      <c r="U16">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="V16">
+        <v>0.1178</v>
+      </c>
+      <c r="W16">
+        <v>0.14630000000000001</v>
+      </c>
+      <c r="X16">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="Y16">
+        <v>0.2112</v>
+      </c>
+      <c r="Z16">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="AA16">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="AB16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="H18" s="11">
+        <v>-180</v>
+      </c>
+      <c r="I18">
+        <v>-162</v>
+      </c>
+      <c r="J18">
+        <v>-144</v>
+      </c>
+      <c r="K18">
+        <v>-126</v>
+      </c>
+      <c r="L18">
+        <v>-108</v>
+      </c>
+      <c r="M18">
+        <v>-90</v>
+      </c>
+      <c r="N18">
+        <v>-72</v>
+      </c>
+      <c r="O18">
+        <v>-54</v>
+      </c>
+      <c r="P18">
+        <v>-36</v>
+      </c>
+      <c r="Q18">
+        <v>-18</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>18</v>
+      </c>
+      <c r="T18">
+        <v>36</v>
+      </c>
+      <c r="U18">
+        <v>54</v>
+      </c>
+      <c r="V18">
+        <v>72</v>
+      </c>
+      <c r="W18">
+        <v>90</v>
+      </c>
+      <c r="X18">
+        <v>108</v>
+      </c>
+      <c r="Y18">
+        <v>126</v>
+      </c>
+      <c r="Z18">
+        <v>144</v>
+      </c>
+      <c r="AA18">
+        <v>162</v>
+      </c>
+      <c r="AB18">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19">
+        <f>3.14157/180</f>
+        <v>1.7453166666666669E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="13"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="13"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="13"/>
+      <c r="H30" s="14"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A29:A30">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:B14">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:B28">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5 E7:E14">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74761B87-7C75-4A68-92A3-095A536CD0F0}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1675,7 +2365,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -1721,16 +2411,16 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>0.65</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <v>0.24</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -1749,7 +2439,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="11"/>
@@ -1767,7 +2457,6 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -1785,7 +2474,6 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
@@ -1805,7 +2493,6 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -1821,7 +2508,7 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="11"/>
@@ -1836,7 +2523,6 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
@@ -1854,7 +2540,6 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="19">
@@ -1890,7 +2575,6 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="30"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="19">
@@ -1928,7 +2612,6 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="30"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
@@ -1946,7 +2629,6 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="30"/>
       <c r="H16" s="11">
         <v>0.2</v>
       </c>
@@ -1960,7 +2642,6 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="30"/>
       <c r="H17">
         <v>0.4</v>
       </c>
@@ -1979,7 +2660,6 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="30"/>
       <c r="F18" s="18">
         <f>L18-P5</f>
         <v>0.13380000000000003</v>
@@ -2014,7 +2694,6 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="30"/>
       <c r="H19">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2028,7 +2707,6 @@
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="30"/>
       <c r="H20">
         <v>0.05</v>
       </c>
@@ -2423,22 +3101,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A30:A31">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B22">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B29">
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E22">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2446,7 +3124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F335037-821E-41A4-8D2F-E525D667C97D}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -2540,7 +3218,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -2562,16 +3240,16 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>0.65</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <v>0.24</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -2587,7 +3265,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="11"/>
@@ -2605,7 +3283,6 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -2623,7 +3300,6 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
@@ -2643,7 +3319,6 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -2659,7 +3334,7 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="11"/>
@@ -2674,7 +3349,6 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
@@ -2692,7 +3366,6 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="19">
@@ -2728,7 +3401,6 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="30"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="19">
@@ -2766,7 +3438,6 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="30"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
@@ -2784,7 +3455,6 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="30"/>
       <c r="H16" s="11">
         <v>0.2</v>
       </c>
@@ -2798,7 +3468,6 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="30"/>
       <c r="H17">
         <v>0.4</v>
       </c>
@@ -2814,7 +3483,6 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="30"/>
       <c r="F18">
         <v>0.13380000000000003</v>
       </c>
@@ -2837,7 +3505,6 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="30"/>
       <c r="H19">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -2851,7 +3518,6 @@
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="30"/>
       <c r="H20">
         <v>0.05</v>
       </c>
@@ -2867,7 +3533,7 @@
       <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" t="s">
         <v>21</v>
       </c>
       <c r="F21" s="11"/>
@@ -2966,7 +3632,7 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="11"/>
@@ -3266,22 +3932,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B22">
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E22">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3289,7 +3955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15AC622F-3DB9-4F16-B5C0-4EC8FC6B4193}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -3383,7 +4049,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -3405,16 +4071,16 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>0.15379999999999999</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>0.65</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <v>0.24</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -3430,7 +4096,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="11"/>
@@ -3448,7 +4114,6 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -3466,7 +4131,6 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-1.3243331220516996</v>
       </c>
@@ -3486,7 +4150,6 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -3502,7 +4165,7 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="11"/>
@@ -3517,7 +4180,6 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
@@ -3535,7 +4197,6 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="19">
@@ -3571,8 +4232,7 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="30"/>
-      <c r="F14" s="28"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="19">
         <v>0.4</v>
@@ -3609,8 +4269,7 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11">
         <v>0.2</v>
@@ -3627,8 +4286,6 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
       <c r="H16" s="11">
         <v>0.2</v>
       </c>
@@ -3642,8 +4299,6 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
       <c r="H17">
         <v>0.4</v>
       </c>
@@ -3659,8 +4314,7 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30">
+      <c r="F18">
         <v>0.13380000000000003</v>
       </c>
       <c r="G18">
@@ -3682,8 +4336,6 @@
       <c r="D19" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
       <c r="H19">
         <v>9.6000000000000002E-2</v>
       </c>
@@ -3697,8 +4349,6 @@
       <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
       <c r="H20">
         <v>0.05</v>
       </c>
@@ -3714,10 +4364,10 @@
       <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11">
         <f>H25*$H$26</f>
@@ -3813,10 +4463,10 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11">
         <v>-0.3</v>
@@ -4027,22 +4677,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B22">
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B36">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E22">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4050,7 +4700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E11C41EB-00BD-4D32-9768-361F74323707}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4144,7 +4794,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -4166,16 +4816,16 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>0.13708300000000001</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>0.439</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <v>0.20499999999999999</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -4191,7 +4841,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="11"/>
@@ -4209,7 +4859,6 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -4227,7 +4876,6 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30"/>
       <c r="F9" s="11">
         <v>-1.0213531220517</v>
       </c>
@@ -4250,7 +4898,6 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -4266,7 +4913,7 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="11"/>
@@ -4281,7 +4928,6 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
@@ -4299,7 +4945,7 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
@@ -4398,7 +5044,7 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="11"/>
@@ -4779,22 +5425,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B14">
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B28">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E14">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4802,7 +5448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE151F8-FCB7-48C3-AF57-805C6484F0E1}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4896,7 +5542,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -4918,16 +5564,16 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>0.2238</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>0.36</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <v>0.33</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -4943,7 +5589,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="11"/>
@@ -4961,7 +5607,6 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -4979,7 +5624,6 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30"/>
       <c r="F9" s="11">
         <v>1.18</v>
       </c>
@@ -4999,7 +5643,6 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -5015,7 +5658,7 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="11"/>
@@ -5030,7 +5673,6 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
@@ -5048,7 +5690,7 @@
       <c r="D13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="E13" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="11"/>
@@ -5147,7 +5789,7 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="E14" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="11"/>
@@ -5361,22 +6003,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B14">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B28">
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E14">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5384,7 +6026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECBDE68-4E21-4C89-B4A9-ED23D7A49E52}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
@@ -5478,7 +6120,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -5506,16 +6148,16 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <v>0.11927</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -5531,7 +6173,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="11"/>
@@ -5549,7 +6191,6 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -5567,7 +6208,6 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-0.46200000000000002</v>
       </c>
@@ -5587,7 +6227,6 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -5603,7 +6242,7 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="11"/>
@@ -5618,7 +6257,6 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
@@ -5636,7 +6274,6 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="25">
@@ -5672,7 +6309,6 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="30"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="19">
@@ -5710,7 +6346,6 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="30"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="26">
@@ -5728,7 +6363,6 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="30"/>
       <c r="F16" s="18">
         <v>7.7869999999999995E-2</v>
       </c>
@@ -5748,7 +6382,6 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="30"/>
       <c r="H17">
         <f>0.01365</f>
         <v>1.3650000000000001E-2</v>
@@ -5763,7 +6396,6 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="30"/>
       <c r="H18">
         <v>0.05</v>
       </c>
@@ -6167,22 +6799,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B20">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B27">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E20">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6190,14 +6822,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{112E2386-034C-449F-A0C5-FEBB336109CA}">
   <sheetPr>
     <tabColor rgb="FFFF9999"/>
   </sheetPr>
   <dimension ref="A1:AB31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F21" sqref="F21"/>
       <selection pane="topRight" activeCell="F21" sqref="F21"/>
@@ -6285,7 +6917,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6">
@@ -6313,16 +6945,16 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="28">
         <v>9.0499999999999997E-2</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="28">
         <v>0.17899999999999999</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="28">
         <v>0.11927</v>
       </c>
       <c r="J6" s="12" t="s">
@@ -6338,7 +6970,7 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="11"/>
@@ -6356,7 +6988,6 @@
       <c r="D8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="30"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11">
@@ -6374,7 +7005,6 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="30"/>
       <c r="F9" s="6">
         <v>-0.56000000000000005</v>
       </c>
@@ -6394,7 +7024,6 @@
       <c r="D10" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="30"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11">
@@ -6410,12 +7039,12 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="28">
+      <c r="H11" s="11">
         <v>1</v>
       </c>
     </row>
@@ -6425,7 +7054,6 @@
         <v>8</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="E12" s="30"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="27" t="s">
@@ -6443,10 +7071,9 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="29">
+      <c r="H13" s="19">
         <v>0.2</v>
       </c>
       <c r="I13" s="21"/>
@@ -6479,7 +7106,6 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="30"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="19">
@@ -6517,10 +7143,9 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="30"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="28">
+      <c r="H15" s="11">
         <v>0.2</v>
       </c>
     </row>
@@ -6535,7 +7160,6 @@
       <c r="D16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="30"/>
       <c r="F16" s="18">
         <v>7.7869999999999995E-2</v>
       </c>
@@ -6555,7 +7179,6 @@
       <c r="D17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="30"/>
       <c r="H17">
         <f>0.01365</f>
         <v>1.3650000000000001E-2</v>
@@ -6570,7 +7193,6 @@
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="30"/>
       <c r="H18">
         <v>0.05</v>
       </c>
@@ -6974,22 +7596,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A28:A29">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:B20">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:B27">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E7:E20">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
